--- a/dmn/test/new_UserQualifications-MasterGlobalDef304_rules.xlsx
+++ b/dmn/test/new_UserQualifications-MasterGlobalDef304_rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="552">
   <si>
     <t xml:space="preserve">Task</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">[50000..2000000]</t>
   </si>
   <si>
-    <t xml:space="preserve">"aqui terme","assiteca"</t>
+    <t xml:space="preserve">"aqui terme#assiteca"</t>
   </si>
   <si>
     <t xml:space="preserve">"GEN"</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">"stefano.vassena@cep-srl.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"257 corso italia", "253 dogana", "251 san gottardo"</t>
+    <t xml:space="preserve">"257 corso italia#253 dogana#251 san gottardo"</t>
   </si>
   <si>
     <t xml:space="preserve">"roberto.cincotti@cep-srl.com"</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">"alissa.muhibic@aeaitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia Generali TF3 Lecco Piazza Degli Affari", "Agenzia Generali 140 Pontedera"</t>
+    <t xml:space="preserve">"Agenzia Generali TF3 Lecco Piazza Degli Affari#Agenzia Generali 140 Pontedera"</t>
   </si>
   <si>
     <t xml:space="preserve">"Agenzia Generali 353 Tradate"</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">"irene.asaro@exertaitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia Generali Varese 050", "Agenzia Generali T5P Milano Washington"</t>
+    <t xml:space="preserve">"Agenzia Generali Varese 050#Agenzia Generali T5P Milano Washington"</t>
   </si>
   <si>
     <t xml:space="preserve">"lorenzo.bellani@aeaitalia.com"</t>
@@ -425,20 +425,20 @@
     <t xml:space="preserve">"luca.montagnini@EXPERTAitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia Generali di Bernareggio RKE", "Agenzia Cattolica BERNAREGGIO MILANO 001049", "Agenzia Cattolica Vercelli 000665 "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Agenzia Generali Monza I53","Agenzia Generali di Bernareggio RKE", "Agenzia Cattolica BERNAREGGIO MILANO 001049"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ferraro Amministrazioni", "COIMA REM"</t>
+    <t xml:space="preserve">"Agenzia Generali di Bernareggio RKE#Agenzia Cattolica BERNAREGGIO MILANO 001049#Agenzia Cattolica Vercelli 000665 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Agenzia Generali Monza I53#Agenzia Generali di Bernareggio RKE#Agenzia Cattolica BERNAREGGIO MILANO 001049"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ferraro Amministrazioni#COIMA REM"</t>
   </si>
   <si>
     <t xml:space="preserve">"luciano.travaini@EXPERTAitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia Generali T5U Milano Sant Ambrogio", "
-Agenzia Generali TF5 Legnano Xxv Aprile", "Agenzia Generali Cantù 090", "Agenzia Generali Mariano Comense 310", "Agenzia Generali T51 Busto Arsizio Piazza Trento E Trieste"</t>
+    <t xml:space="preserve">"Agenzia Generali T5U Milano Sant Ambrogio#
+Agenzia Generali TF5 Legnano Xxv Aprile#Agenzia Generali Cantù 090#Agenzia Generali Mariano Comense 310#Agenzia Generali T51 Busto Arsizio Piazza Trento E Trieste"</t>
   </si>
   <si>
     <t xml:space="preserve">"ACC","CCC","MCC","ACS","MSC","ED","EV","EE","EED","EC","NO","ER","CA","EM","WRD","RM","RF"</t>
@@ -462,7 +462,7 @@
     <t xml:space="preserve">"nicola.martino@aeaitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia Generali IH4 Darfo Boario Terme Manifattura", "Agenzia Generali T2T Darfo Boario Terme Corso Italia"</t>
+    <t xml:space="preserve">"Agenzia Generali IH4 Darfo Boario Terme Manifattura#Agenzia Generali T2T Darfo Boario Terme Corso Italia"</t>
   </si>
   <si>
     <t xml:space="preserve">"pasquale.cantiello@aeaitalia.com"</t>
@@ -483,7 +483,7 @@
     <t xml:space="preserve">"simone.torregrossa@aeaitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia Generali Vigevano I13","Agenzia Generali A78 Triumplina", "Agenzia Generali IW5 Piombino Via Spalato","Agenzia Generali I15 Biella Via Pietro Micca", "Agenzia Generali 733 Biella Via Carso"</t>
+    <t xml:space="preserve">"Agenzia Generali Vigevano I13#Agenzia Generali A78 Triumplina#Agenzia Generali IW5 Piombino Via Spalato#Agenzia Generali I15 Biella Via Pietro Micca#Agenzia Generali 733 Biella Via Carso"</t>
   </si>
   <si>
     <t xml:space="preserve">"pietro.fumagalli@aeaitalia.com"</t>
@@ -687,16 +687,13 @@
     <t xml:space="preserve">"fabrizio.barbieri@EXPERTAitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"michela.danza@aeaitalia.com; "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"auroraattardi@aeaitalia.com; "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"luca.mastrototaro@aeaitalia.com; "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"fabrizio.barbieri@EXPERTAitalia.com; "</t>
+    <t xml:space="preserve">"michela.danza@aeaitalia.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"auroraattardi@aeaitalia.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"luca.mastrototaro@aeaitalia.com"</t>
   </si>
   <si>
     <t xml:space="preserve">"ilaria.totaro@EXPERTAitalia.com"</t>
@@ -738,7 +735,7 @@
     <t xml:space="preserve">&lt;9000</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia AXA 2301 Portogruaro; Agenzia AXA - MPS;Agenzia AXA 2814 Pordenone;Agenzia AXA 0804 Treviglio;Agenzia AXA 1212 Milano Brisa"</t>
+    <t xml:space="preserve">"Agenzia AXA 2301 Portogruaro#Agenzia AXA - MPS;Agenzia AXA 2814 Pordenone;Agenzia AXA 0804 Treviglio;Agenzia AXA 1212 Milano Brisa"</t>
   </si>
   <si>
     <t xml:space="preserve">"ED","EV","EE","EED","NO"</t>
@@ -867,7 +864,7 @@
     <t xml:space="preserve">"marco.antolini@EXPERTAitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia UnipolSai 58216 Parabiago; Agenzia UnipolSai 59665 Cornaredo; Agenzia UnipolSai 65256 Legnano C.so Italia; Agenzia UnipolSai 02603 Cuggiono; Agenzia UnipolSai 33129 Magenta via Beretta 28; Agenzia UnipolSai 34176 Castano Primo; Agenzia UnipolSai 45033 Abbiategrasso Galleria Europa; Agenzia UnipolSai 34028 Legnano via Venegoni; "</t>
+    <t xml:space="preserve">"Agenzia UnipolSai 58216 Parabiago#Agenzia UnipolSai 59665 Cornaredo#Agenzia UnipolSai 65256 Legnano C.so Italia#Agenzia UnipolSai 02603 Cuggiono#Agenzia UnipolSai 33129 Magenta via Beretta 28#Agenzia UnipolSai 34176 Castano Primo#Agenzia UnipolSai 45033 Abbiategrasso Galleria Europa#Agenzia UnipolSai 34028 Legnano via Venegoni; "</t>
   </si>
   <si>
     <t xml:space="preserve">"UNI","VIT"</t>
@@ -939,10 +936,10 @@
     <t xml:space="preserve">"silvia.comin@EXPERTAitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia UnipolSai 45626 Garbagnate; Agenzia UnipolSai 44383 Rho via Madonna; Agenzia UnipolSai 64595 Firenze Nord"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Amm. Studio Dr. Cavallo Antonio; Guagliardi Geom. Stefano; Arch. Daniele Digiuni; Manager Stabili srl;Studio Bosi sas di Bosi Geom. Pierluigi and C.;Studio Ursino"</t>
+    <t xml:space="preserve">"Agenzia UnipolSai 45626 Garbagnate#Agenzia UnipolSai 44383 Rho via Madonna#Agenzia UnipolSai 64595 Firenze Nord"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Amm. Studio Dr. Cavallo Antonio#Guagliardi Geom. Stefano#Arch. Daniele Digiuni#Manager Stabili srl#Studio Bosi sas di Bosi Geom. Pierluigi and C.#Studio Ursino"</t>
   </si>
   <si>
     <t xml:space="preserve">"Acqua Condotta","Eventi naturali","Lastre","Responsabilità civile ac"</t>
@@ -1257,7 +1254,7 @@
     <t xml:space="preserve">"francesco.maggio@aeaitalia.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Agenzia UnipolSai 40078 Cologno al Serio; Agenzia UnipolSai 64469 Pandino"</t>
+    <t xml:space="preserve">"Agenzia UnipolSai 40078 Cologno al Serio#Agenzia UnipolSai 64469 Pandino"</t>
   </si>
   <si>
     <t xml:space="preserve">"Danno Elettrico","Deperimento merce","Elettronica","Incendio"</t>
@@ -7817,7 +7814,7 @@
         <v>20</v>
       </c>
       <c r="Q94" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R94" t="s">
         <v>23</v>
@@ -7882,7 +7879,7 @@
         <v>20</v>
       </c>
       <c r="Q95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R95" t="s">
         <v>23</v>
@@ -7899,7 +7896,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
@@ -7908,52 +7905,52 @@
         <v>219</v>
       </c>
       <c r="D96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
         <v>230</v>
       </c>
-      <c r="E96" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" t="s">
+        <v>20</v>
+      </c>
+      <c r="N96" t="s">
+        <v>20</v>
+      </c>
+      <c r="O96" t="s">
+        <v>20</v>
+      </c>
+      <c r="P96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q96" t="s">
         <v>231</v>
       </c>
-      <c r="H96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I96" t="s">
-        <v>20</v>
-      </c>
-      <c r="J96" t="s">
-        <v>20</v>
-      </c>
-      <c r="K96" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96" t="s">
-        <v>20</v>
-      </c>
-      <c r="N96" t="s">
-        <v>20</v>
-      </c>
-      <c r="O96" t="s">
-        <v>20</v>
-      </c>
-      <c r="P96" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>232</v>
-      </c>
       <c r="R96" t="s">
         <v>23</v>
       </c>
       <c r="S96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T96" t="s">
         <v>23</v>
@@ -7964,7 +7961,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
         <v>92</v>
@@ -7982,7 +7979,7 @@
         <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H97" t="s">
         <v>20</v>
@@ -8012,13 +8009,13 @@
         <v>20</v>
       </c>
       <c r="Q97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R97" t="s">
         <v>23</v>
       </c>
       <c r="S97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T97" t="s">
         <v>23</v>
@@ -8272,7 +8269,7 @@
         <v>20</v>
       </c>
       <c r="Q101" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R101" t="s">
         <v>23</v>
@@ -8337,7 +8334,7 @@
         <v>20</v>
       </c>
       <c r="Q102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R102" t="s">
         <v>23</v>
@@ -8354,7 +8351,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B103" t="s">
         <v>92</v>
@@ -8363,7 +8360,7 @@
         <v>219</v>
       </c>
       <c r="D103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E103" t="s">
         <v>20</v>
@@ -8402,7 +8399,7 @@
         <v>20</v>
       </c>
       <c r="Q103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R103" t="s">
         <v>23</v>
@@ -8419,7 +8416,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s">
         <v>92</v>
@@ -8428,52 +8425,52 @@
         <v>219</v>
       </c>
       <c r="D104" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" t="s">
+        <v>20</v>
+      </c>
+      <c r="M104" t="s">
+        <v>20</v>
+      </c>
+      <c r="N104" t="s">
+        <v>20</v>
+      </c>
+      <c r="O104" t="s">
+        <v>20</v>
+      </c>
+      <c r="P104" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q104" t="s">
         <v>237</v>
       </c>
-      <c r="E104" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" t="s">
-        <v>20</v>
-      </c>
-      <c r="J104" t="s">
-        <v>20</v>
-      </c>
-      <c r="K104" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" t="s">
-        <v>20</v>
-      </c>
-      <c r="M104" t="s">
-        <v>20</v>
-      </c>
-      <c r="N104" t="s">
-        <v>20</v>
-      </c>
-      <c r="O104" t="s">
-        <v>20</v>
-      </c>
-      <c r="P104" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>238</v>
-      </c>
       <c r="R104" t="s">
         <v>23</v>
       </c>
       <c r="S104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T104" t="s">
         <v>23</v>
@@ -8484,7 +8481,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s">
         <v>31</v>
@@ -8508,7 +8505,7 @@
         <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J105" t="s">
         <v>174</v>
@@ -8532,13 +8529,13 @@
         <v>20</v>
       </c>
       <c r="Q105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R105" t="s">
         <v>23</v>
       </c>
       <c r="S105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T105" t="s">
         <v>23</v>
@@ -8549,7 +8546,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B106" t="s">
         <v>92</v>
@@ -8558,7 +8555,7 @@
         <v>219</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E106" t="s">
         <v>20</v>
@@ -8573,31 +8570,31 @@
         <v>20</v>
       </c>
       <c r="I106" t="s">
+        <v>242</v>
+      </c>
+      <c r="J106" t="s">
         <v>243</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" t="s">
+        <v>20</v>
+      </c>
+      <c r="M106" t="s">
+        <v>20</v>
+      </c>
+      <c r="N106" t="s">
+        <v>20</v>
+      </c>
+      <c r="O106" t="s">
+        <v>20</v>
+      </c>
+      <c r="P106" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q106" t="s">
         <v>244</v>
-      </c>
-      <c r="K106" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" t="s">
-        <v>20</v>
-      </c>
-      <c r="M106" t="s">
-        <v>20</v>
-      </c>
-      <c r="N106" t="s">
-        <v>20</v>
-      </c>
-      <c r="O106" t="s">
-        <v>20</v>
-      </c>
-      <c r="P106" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>245</v>
       </c>
       <c r="R106" t="s">
         <v>23</v>
@@ -8623,7 +8620,7 @@
         <v>219</v>
       </c>
       <c r="D107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E107" t="s">
         <v>20</v>
@@ -8662,7 +8659,7 @@
         <v>20</v>
       </c>
       <c r="Q107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R107" t="s">
         <v>23</v>
@@ -8679,7 +8676,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B108" t="s">
         <v>92</v>
@@ -8688,7 +8685,7 @@
         <v>219</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" t="s">
         <v>20</v>
@@ -8727,7 +8724,7 @@
         <v>20</v>
       </c>
       <c r="Q108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R108" t="s">
         <v>23</v>
@@ -8744,7 +8741,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B109" t="s">
         <v>92</v>
@@ -8753,7 +8750,7 @@
         <v>219</v>
       </c>
       <c r="D109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E109" t="s">
         <v>20</v>
@@ -8768,10 +8765,10 @@
         <v>20</v>
       </c>
       <c r="I109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K109" t="s">
         <v>20</v>
@@ -8792,7 +8789,7 @@
         <v>20</v>
       </c>
       <c r="Q109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R109" t="s">
         <v>23</v>
@@ -8809,7 +8806,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B110" t="s">
         <v>99</v>
@@ -8818,7 +8815,7 @@
         <v>219</v>
       </c>
       <c r="D110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E110" t="s">
         <v>20</v>
@@ -8845,19 +8842,19 @@
         <v>20</v>
       </c>
       <c r="M110" t="s">
+        <v>250</v>
+      </c>
+      <c r="N110" t="s">
+        <v>20</v>
+      </c>
+      <c r="O110" t="s">
+        <v>20</v>
+      </c>
+      <c r="P110" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q110" t="s">
         <v>251</v>
-      </c>
-      <c r="N110" t="s">
-        <v>20</v>
-      </c>
-      <c r="O110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P110" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>252</v>
       </c>
       <c r="R110" t="s">
         <v>23</v>
@@ -8874,7 +8871,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B111" t="s">
         <v>99</v>
@@ -8883,7 +8880,7 @@
         <v>219</v>
       </c>
       <c r="D111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E111" t="s">
         <v>20</v>
@@ -8898,7 +8895,7 @@
         <v>20</v>
       </c>
       <c r="I111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J111" t="s">
         <v>192</v>
@@ -8910,25 +8907,25 @@
         <v>20</v>
       </c>
       <c r="M111" t="s">
+        <v>253</v>
+      </c>
+      <c r="N111" t="s">
+        <v>20</v>
+      </c>
+      <c r="O111" t="s">
+        <v>20</v>
+      </c>
+      <c r="P111" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>231</v>
+      </c>
+      <c r="R111" t="s">
+        <v>23</v>
+      </c>
+      <c r="S111" t="s">
         <v>254</v>
-      </c>
-      <c r="N111" t="s">
-        <v>20</v>
-      </c>
-      <c r="O111" t="s">
-        <v>20</v>
-      </c>
-      <c r="P111" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>232</v>
-      </c>
-      <c r="R111" t="s">
-        <v>23</v>
-      </c>
-      <c r="S111" t="s">
-        <v>255</v>
       </c>
       <c r="T111" t="s">
         <v>23</v>
@@ -8939,7 +8936,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B112" t="s">
         <v>99</v>
@@ -8948,7 +8945,7 @@
         <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E112" t="s">
         <v>20</v>
@@ -8987,7 +8984,7 @@
         <v>20</v>
       </c>
       <c r="Q112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R112" t="s">
         <v>23</v>
@@ -9004,7 +9001,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B113" t="s">
         <v>99</v>
@@ -9013,7 +9010,7 @@
         <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E113" t="s">
         <v>20</v>
@@ -9052,13 +9049,13 @@
         <v>20</v>
       </c>
       <c r="Q113" t="s">
+        <v>257</v>
+      </c>
+      <c r="R113" t="s">
+        <v>23</v>
+      </c>
+      <c r="S113" t="s">
         <v>258</v>
-      </c>
-      <c r="R113" t="s">
-        <v>23</v>
-      </c>
-      <c r="S113" t="s">
-        <v>259</v>
       </c>
       <c r="T113" t="s">
         <v>23</v>
@@ -9069,7 +9066,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B114" t="s">
         <v>99</v>
@@ -9078,7 +9075,7 @@
         <v>219</v>
       </c>
       <c r="D114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E114" t="s">
         <v>20</v>
@@ -9105,19 +9102,19 @@
         <v>20</v>
       </c>
       <c r="M114" t="s">
+        <v>260</v>
+      </c>
+      <c r="N114" t="s">
+        <v>20</v>
+      </c>
+      <c r="O114" t="s">
+        <v>20</v>
+      </c>
+      <c r="P114" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q114" t="s">
         <v>261</v>
-      </c>
-      <c r="N114" t="s">
-        <v>20</v>
-      </c>
-      <c r="O114" t="s">
-        <v>20</v>
-      </c>
-      <c r="P114" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>262</v>
       </c>
       <c r="R114" t="s">
         <v>23</v>
@@ -9134,7 +9131,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B115" t="s">
         <v>99</v>
@@ -9143,7 +9140,7 @@
         <v>219</v>
       </c>
       <c r="D115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E115" t="s">
         <v>20</v>
@@ -9182,7 +9179,7 @@
         <v>20</v>
       </c>
       <c r="Q115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R115" t="s">
         <v>23</v>
@@ -9199,16 +9196,16 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
         <v>99</v>
       </c>
       <c r="C116" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" t="s">
         <v>265</v>
-      </c>
-      <c r="D116" t="s">
-        <v>266</v>
       </c>
       <c r="E116" t="s">
         <v>20</v>
@@ -9247,13 +9244,13 @@
         <v>20</v>
       </c>
       <c r="Q116" t="s">
+        <v>266</v>
+      </c>
+      <c r="R116" t="s">
+        <v>23</v>
+      </c>
+      <c r="S116" t="s">
         <v>267</v>
-      </c>
-      <c r="R116" t="s">
-        <v>23</v>
-      </c>
-      <c r="S116" t="s">
-        <v>268</v>
       </c>
       <c r="T116" t="s">
         <v>23</v>
@@ -9264,7 +9261,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
         <v>99</v>
@@ -9273,7 +9270,7 @@
         <v>219</v>
       </c>
       <c r="D117" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E117" t="s">
         <v>20</v>
@@ -9312,7 +9309,7 @@
         <v>20</v>
       </c>
       <c r="Q117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R117" t="s">
         <v>23</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
         <v>99</v>
@@ -9338,7 +9335,7 @@
         <v>219</v>
       </c>
       <c r="D118" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E118" t="s">
         <v>20</v>
@@ -9377,7 +9374,7 @@
         <v>20</v>
       </c>
       <c r="Q118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R118" t="s">
         <v>23</v>
@@ -9394,7 +9391,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
         <v>99</v>
@@ -9403,7 +9400,7 @@
         <v>219</v>
       </c>
       <c r="D119" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E119" t="s">
         <v>20</v>
@@ -9442,7 +9439,7 @@
         <v>20</v>
       </c>
       <c r="Q119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R119" t="s">
         <v>23</v>
@@ -9459,7 +9456,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s">
         <v>99</v>
@@ -9507,7 +9504,7 @@
         <v>20</v>
       </c>
       <c r="Q120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R120" t="s">
         <v>23</v>
@@ -9524,7 +9521,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B121" t="s">
         <v>99</v>
@@ -9572,7 +9569,7 @@
         <v>20</v>
       </c>
       <c r="Q121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R121" t="s">
         <v>23</v>
@@ -9637,7 +9634,7 @@
         <v>20</v>
       </c>
       <c r="Q122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R122" t="s">
         <v>23</v>
@@ -9702,7 +9699,7 @@
         <v>20</v>
       </c>
       <c r="Q123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R123" t="s">
         <v>23</v>
@@ -9719,31 +9716,31 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B124" t="s">
         <v>99</v>
       </c>
       <c r="C124" t="s">
+        <v>278</v>
+      </c>
+      <c r="D124" t="s">
         <v>279</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
         <v>280</v>
-      </c>
-      <c r="E124" t="s">
-        <v>20</v>
-      </c>
-      <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>20</v>
-      </c>
-      <c r="H124" t="s">
-        <v>20</v>
-      </c>
-      <c r="I124" t="s">
-        <v>281</v>
       </c>
       <c r="J124" t="s">
         <v>174</v>
@@ -9755,25 +9752,25 @@
         <v>20</v>
       </c>
       <c r="M124" t="s">
+        <v>281</v>
+      </c>
+      <c r="N124" t="s">
+        <v>20</v>
+      </c>
+      <c r="O124" t="s">
+        <v>20</v>
+      </c>
+      <c r="P124" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q124" t="s">
         <v>282</v>
       </c>
-      <c r="N124" t="s">
-        <v>20</v>
-      </c>
-      <c r="O124" t="s">
-        <v>20</v>
-      </c>
-      <c r="P124" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q124" t="s">
+      <c r="R124" t="s">
+        <v>23</v>
+      </c>
+      <c r="S124" t="s">
         <v>283</v>
-      </c>
-      <c r="R124" t="s">
-        <v>23</v>
-      </c>
-      <c r="S124" t="s">
-        <v>284</v>
       </c>
       <c r="T124" t="s">
         <v>23</v>
@@ -9790,10 +9787,10 @@
         <v>20</v>
       </c>
       <c r="C125" t="s">
+        <v>284</v>
+      </c>
+      <c r="D125" t="s">
         <v>285</v>
-      </c>
-      <c r="D125" t="s">
-        <v>286</v>
       </c>
       <c r="E125" t="s">
         <v>20</v>
@@ -9820,19 +9817,19 @@
         <v>20</v>
       </c>
       <c r="M125" t="s">
+        <v>286</v>
+      </c>
+      <c r="N125" t="s">
+        <v>20</v>
+      </c>
+      <c r="O125" t="s">
+        <v>20</v>
+      </c>
+      <c r="P125" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q125" t="s">
         <v>287</v>
-      </c>
-      <c r="N125" t="s">
-        <v>20</v>
-      </c>
-      <c r="O125" t="s">
-        <v>20</v>
-      </c>
-      <c r="P125" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>288</v>
       </c>
       <c r="R125" t="s">
         <v>23</v>
@@ -9855,7 +9852,7 @@
         <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D126" t="s">
         <v>20</v>
@@ -9897,7 +9894,7 @@
         <v>20</v>
       </c>
       <c r="Q126" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R126" t="s">
         <v>23</v>
@@ -9920,10 +9917,10 @@
         <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E127" t="s">
         <v>20</v>
@@ -9941,28 +9938,28 @@
         <v>184</v>
       </c>
       <c r="J127" t="s">
+        <v>291</v>
+      </c>
+      <c r="K127" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M127" t="s">
+        <v>20</v>
+      </c>
+      <c r="N127" t="s">
+        <v>20</v>
+      </c>
+      <c r="O127" t="s">
+        <v>20</v>
+      </c>
+      <c r="P127" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q127" t="s">
         <v>292</v>
-      </c>
-      <c r="K127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L127" t="s">
-        <v>20</v>
-      </c>
-      <c r="M127" t="s">
-        <v>20</v>
-      </c>
-      <c r="N127" t="s">
-        <v>20</v>
-      </c>
-      <c r="O127" t="s">
-        <v>20</v>
-      </c>
-      <c r="P127" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>293</v>
       </c>
       <c r="R127" t="s">
         <v>23</v>
@@ -10006,7 +10003,7 @@
         <v>184</v>
       </c>
       <c r="J128" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K128" t="s">
         <v>20</v>
@@ -10027,7 +10024,7 @@
         <v>20</v>
       </c>
       <c r="Q128" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R128" t="s">
         <v>23</v>
@@ -10044,55 +10041,55 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B129" t="s">
         <v>160</v>
       </c>
       <c r="C129" t="s">
+        <v>295</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129" t="s">
+        <v>20</v>
+      </c>
+      <c r="J129" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" t="s">
+        <v>20</v>
+      </c>
+      <c r="N129" t="s">
+        <v>20</v>
+      </c>
+      <c r="O129" t="s">
+        <v>20</v>
+      </c>
+      <c r="P129" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q129" t="s">
         <v>296</v>
-      </c>
-      <c r="D129" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" t="s">
-        <v>20</v>
-      </c>
-      <c r="I129" t="s">
-        <v>20</v>
-      </c>
-      <c r="J129" t="s">
-        <v>20</v>
-      </c>
-      <c r="K129" t="s">
-        <v>20</v>
-      </c>
-      <c r="L129" t="s">
-        <v>20</v>
-      </c>
-      <c r="M129" t="s">
-        <v>20</v>
-      </c>
-      <c r="N129" t="s">
-        <v>20</v>
-      </c>
-      <c r="O129" t="s">
-        <v>20</v>
-      </c>
-      <c r="P129" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>297</v>
       </c>
       <c r="R129" t="s">
         <v>23</v>
@@ -10115,7 +10112,7 @@
         <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D130" t="s">
         <v>20</v>
@@ -10157,7 +10154,7 @@
         <v>20</v>
       </c>
       <c r="Q130" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R130" t="s">
         <v>23</v>
@@ -10180,49 +10177,49 @@
         <v>160</v>
       </c>
       <c r="C131" t="s">
+        <v>298</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" t="s">
+        <v>20</v>
+      </c>
+      <c r="M131" t="s">
+        <v>20</v>
+      </c>
+      <c r="N131" t="s">
+        <v>20</v>
+      </c>
+      <c r="O131" t="s">
+        <v>20</v>
+      </c>
+      <c r="P131" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q131" t="s">
         <v>299</v>
-      </c>
-      <c r="D131" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" t="s">
-        <v>20</v>
-      </c>
-      <c r="I131" t="s">
-        <v>20</v>
-      </c>
-      <c r="J131" t="s">
-        <v>20</v>
-      </c>
-      <c r="K131" t="s">
-        <v>20</v>
-      </c>
-      <c r="L131" t="s">
-        <v>20</v>
-      </c>
-      <c r="M131" t="s">
-        <v>20</v>
-      </c>
-      <c r="N131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O131" t="s">
-        <v>20</v>
-      </c>
-      <c r="P131" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>300</v>
       </c>
       <c r="R131" t="s">
         <v>23</v>
@@ -10239,13 +10236,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B132" t="s">
         <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D132" t="s">
         <v>20</v>
@@ -10287,7 +10284,7 @@
         <v>20</v>
       </c>
       <c r="Q132" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R132" t="s">
         <v>23</v>
@@ -10304,13 +10301,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B133" t="s">
         <v>160</v>
       </c>
       <c r="C133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -10352,7 +10349,7 @@
         <v>20</v>
       </c>
       <c r="Q133" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R133" t="s">
         <v>23</v>
@@ -10372,13 +10369,13 @@
         <v>159</v>
       </c>
       <c r="B134" t="s">
+        <v>303</v>
+      </c>
+      <c r="C134" t="s">
         <v>304</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>305</v>
-      </c>
-      <c r="D134" t="s">
-        <v>306</v>
       </c>
       <c r="E134" t="s">
         <v>20</v>
@@ -10417,16 +10414,16 @@
         <v>20</v>
       </c>
       <c r="Q134" t="s">
+        <v>306</v>
+      </c>
+      <c r="R134" t="s">
+        <v>23</v>
+      </c>
+      <c r="S134" t="s">
         <v>307</v>
       </c>
-      <c r="R134" t="s">
-        <v>23</v>
-      </c>
-      <c r="S134" t="s">
+      <c r="T134" t="s">
         <v>308</v>
-      </c>
-      <c r="T134" t="s">
-        <v>309</v>
       </c>
       <c r="U134" t="s">
         <v>23</v>
@@ -10440,10 +10437,10 @@
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D135" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E135" t="s">
         <v>20</v>
@@ -10482,7 +10479,7 @@
         <v>20</v>
       </c>
       <c r="Q135" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R135" t="s">
         <v>23</v>
@@ -10526,7 +10523,7 @@
         <v>184</v>
       </c>
       <c r="J136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K136" t="s">
         <v>20</v>
@@ -10547,7 +10544,7 @@
         <v>20</v>
       </c>
       <c r="Q136" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R136" t="s">
         <v>23</v>
@@ -10573,7 +10570,7 @@
         <v>195</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E137" t="s">
         <v>20</v>
@@ -10591,7 +10588,7 @@
         <v>184</v>
       </c>
       <c r="J137" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K137" t="s">
         <v>20</v>
@@ -10612,7 +10609,7 @@
         <v>20</v>
       </c>
       <c r="Q137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R137" t="s">
         <v>23</v>
@@ -10635,7 +10632,7 @@
         <v>31</v>
       </c>
       <c r="C138" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D138" t="s">
         <v>196</v>
@@ -10656,7 +10653,7 @@
         <v>184</v>
       </c>
       <c r="J138" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K138" t="s">
         <v>20</v>
@@ -10677,7 +10674,7 @@
         <v>20</v>
       </c>
       <c r="Q138" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R138" t="s">
         <v>23</v>
@@ -10694,16 +10691,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B139" t="s">
         <v>160</v>
       </c>
       <c r="C139" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E139" t="s">
         <v>20</v>
@@ -10742,7 +10739,7 @@
         <v>20</v>
       </c>
       <c r="Q139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R139" t="s">
         <v>23</v>
@@ -10765,7 +10762,7 @@
         <v>202</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D140" t="s">
         <v>20</v>
@@ -10807,7 +10804,7 @@
         <v>20</v>
       </c>
       <c r="Q140" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R140" t="s">
         <v>23</v>
@@ -10833,7 +10830,7 @@
         <v>195</v>
       </c>
       <c r="D141" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E141" t="s">
         <v>20</v>
@@ -10872,7 +10869,7 @@
         <v>20</v>
       </c>
       <c r="Q141" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R141" t="s">
         <v>23</v>
@@ -10895,7 +10892,7 @@
         <v>160</v>
       </c>
       <c r="C142" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D142" t="s">
         <v>20</v>
@@ -10913,31 +10910,31 @@
         <v>20</v>
       </c>
       <c r="I142" t="s">
+        <v>319</v>
+      </c>
+      <c r="J142" t="s">
+        <v>319</v>
+      </c>
+      <c r="K142" t="s">
+        <v>20</v>
+      </c>
+      <c r="L142" t="s">
+        <v>20</v>
+      </c>
+      <c r="M142" t="s">
+        <v>20</v>
+      </c>
+      <c r="N142" t="s">
+        <v>20</v>
+      </c>
+      <c r="O142" t="s">
+        <v>20</v>
+      </c>
+      <c r="P142" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q142" t="s">
         <v>320</v>
-      </c>
-      <c r="J142" t="s">
-        <v>320</v>
-      </c>
-      <c r="K142" t="s">
-        <v>20</v>
-      </c>
-      <c r="L142" t="s">
-        <v>20</v>
-      </c>
-      <c r="M142" t="s">
-        <v>20</v>
-      </c>
-      <c r="N142" t="s">
-        <v>20</v>
-      </c>
-      <c r="O142" t="s">
-        <v>20</v>
-      </c>
-      <c r="P142" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>321</v>
       </c>
       <c r="R142" t="s">
         <v>23</v>
@@ -10954,13 +10951,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B143" t="s">
         <v>160</v>
       </c>
       <c r="C143" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D143" t="s">
         <v>20</v>
@@ -11002,7 +10999,7 @@
         <v>20</v>
       </c>
       <c r="Q143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R143" t="s">
         <v>23</v>
@@ -11025,7 +11022,7 @@
         <v>160</v>
       </c>
       <c r="C144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D144" t="s">
         <v>20</v>
@@ -11067,7 +11064,7 @@
         <v>20</v>
       </c>
       <c r="Q144" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R144" t="s">
         <v>23</v>
@@ -11090,7 +11087,7 @@
         <v>160</v>
       </c>
       <c r="C145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D145" t="s">
         <v>20</v>
@@ -11132,7 +11129,7 @@
         <v>20</v>
       </c>
       <c r="Q145" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R145" t="s">
         <v>23</v>
@@ -11155,10 +11152,10 @@
         <v>99</v>
       </c>
       <c r="C146" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E146" t="s">
         <v>20</v>
@@ -11197,7 +11194,7 @@
         <v>20</v>
       </c>
       <c r="Q146" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R146" t="s">
         <v>23</v>
@@ -11220,10 +11217,10 @@
         <v>31</v>
       </c>
       <c r="C147" t="s">
+        <v>326</v>
+      </c>
+      <c r="D147" t="s">
         <v>327</v>
-      </c>
-      <c r="D147" t="s">
-        <v>328</v>
       </c>
       <c r="E147" t="s">
         <v>20</v>
@@ -11262,7 +11259,7 @@
         <v>20</v>
       </c>
       <c r="Q147" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R147" t="s">
         <v>23</v>
@@ -11279,13 +11276,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B148" t="s">
         <v>31</v>
       </c>
       <c r="C148" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D148" t="s">
         <v>20</v>
@@ -11306,28 +11303,28 @@
         <v>170</v>
       </c>
       <c r="J148" t="s">
+        <v>330</v>
+      </c>
+      <c r="K148" t="s">
+        <v>20</v>
+      </c>
+      <c r="L148" t="s">
+        <v>20</v>
+      </c>
+      <c r="M148" t="s">
+        <v>20</v>
+      </c>
+      <c r="N148" t="s">
+        <v>20</v>
+      </c>
+      <c r="O148" t="s">
+        <v>20</v>
+      </c>
+      <c r="P148" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q148" t="s">
         <v>331</v>
-      </c>
-      <c r="K148" t="s">
-        <v>20</v>
-      </c>
-      <c r="L148" t="s">
-        <v>20</v>
-      </c>
-      <c r="M148" t="s">
-        <v>20</v>
-      </c>
-      <c r="N148" t="s">
-        <v>20</v>
-      </c>
-      <c r="O148" t="s">
-        <v>20</v>
-      </c>
-      <c r="P148" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>332</v>
       </c>
       <c r="R148" t="s">
         <v>23</v>
@@ -11350,25 +11347,25 @@
         <v>31</v>
       </c>
       <c r="C149" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D149" t="s">
+        <v>332</v>
+      </c>
+      <c r="E149" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" t="s">
         <v>333</v>
-      </c>
-      <c r="E149" t="s">
-        <v>20</v>
-      </c>
-      <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149" t="s">
-        <v>334</v>
       </c>
       <c r="J149" t="s">
         <v>192</v>
@@ -11392,7 +11389,7 @@
         <v>20</v>
       </c>
       <c r="Q149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R149" t="s">
         <v>23</v>
@@ -11415,49 +11412,49 @@
         <v>92</v>
       </c>
       <c r="C150" t="s">
+        <v>335</v>
+      </c>
+      <c r="D150" t="s">
+        <v>234</v>
+      </c>
+      <c r="E150" t="s">
+        <v>20</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" t="s">
         <v>336</v>
       </c>
-      <c r="D150" t="s">
-        <v>235</v>
-      </c>
-      <c r="E150" t="s">
-        <v>20</v>
-      </c>
-      <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" t="s">
-        <v>20</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
+        <v>243</v>
+      </c>
+      <c r="K150" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" t="s">
+        <v>20</v>
+      </c>
+      <c r="M150" t="s">
+        <v>20</v>
+      </c>
+      <c r="N150" t="s">
+        <v>20</v>
+      </c>
+      <c r="O150" t="s">
+        <v>20</v>
+      </c>
+      <c r="P150" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q150" t="s">
         <v>337</v>
-      </c>
-      <c r="J150" t="s">
-        <v>244</v>
-      </c>
-      <c r="K150" t="s">
-        <v>20</v>
-      </c>
-      <c r="L150" t="s">
-        <v>20</v>
-      </c>
-      <c r="M150" t="s">
-        <v>20</v>
-      </c>
-      <c r="N150" t="s">
-        <v>20</v>
-      </c>
-      <c r="O150" t="s">
-        <v>20</v>
-      </c>
-      <c r="P150" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>338</v>
       </c>
       <c r="R150" t="s">
         <v>23</v>
@@ -11480,10 +11477,10 @@
         <v>31</v>
       </c>
       <c r="C151" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D151" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E151" t="s">
         <v>20</v>
@@ -11498,7 +11495,7 @@
         <v>20</v>
       </c>
       <c r="I151" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J151" t="s">
         <v>184</v>
@@ -11522,7 +11519,7 @@
         <v>20</v>
       </c>
       <c r="Q151" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R151" t="s">
         <v>23</v>
@@ -11545,10 +11542,10 @@
         <v>99</v>
       </c>
       <c r="C152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E152" t="s">
         <v>20</v>
@@ -11587,7 +11584,7 @@
         <v>20</v>
       </c>
       <c r="Q152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R152" t="s">
         <v>23</v>
@@ -11610,10 +11607,10 @@
         <v>31</v>
       </c>
       <c r="C153" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D153" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E153" t="s">
         <v>20</v>
@@ -11652,7 +11649,7 @@
         <v>20</v>
       </c>
       <c r="Q153" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R153" t="s">
         <v>23</v>
@@ -11675,49 +11672,49 @@
         <v>92</v>
       </c>
       <c r="C154" t="s">
+        <v>343</v>
+      </c>
+      <c r="D154" t="s">
         <v>344</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>20</v>
+      </c>
+      <c r="H154" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" t="s">
         <v>345</v>
       </c>
-      <c r="E154" t="s">
-        <v>20</v>
-      </c>
-      <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>20</v>
-      </c>
-      <c r="H154" t="s">
-        <v>20</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
+        <v>243</v>
+      </c>
+      <c r="K154" t="s">
+        <v>20</v>
+      </c>
+      <c r="L154" t="s">
+        <v>20</v>
+      </c>
+      <c r="M154" t="s">
+        <v>20</v>
+      </c>
+      <c r="N154" t="s">
+        <v>20</v>
+      </c>
+      <c r="O154" t="s">
+        <v>20</v>
+      </c>
+      <c r="P154" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q154" t="s">
         <v>346</v>
-      </c>
-      <c r="J154" t="s">
-        <v>244</v>
-      </c>
-      <c r="K154" t="s">
-        <v>20</v>
-      </c>
-      <c r="L154" t="s">
-        <v>20</v>
-      </c>
-      <c r="M154" t="s">
-        <v>20</v>
-      </c>
-      <c r="N154" t="s">
-        <v>20</v>
-      </c>
-      <c r="O154" t="s">
-        <v>20</v>
-      </c>
-      <c r="P154" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>347</v>
       </c>
       <c r="R154" t="s">
         <v>23</v>
@@ -11740,10 +11737,10 @@
         <v>31</v>
       </c>
       <c r="C155" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D155" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E155" t="s">
         <v>20</v>
@@ -11782,7 +11779,7 @@
         <v>20</v>
       </c>
       <c r="Q155" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R155" t="s">
         <v>23</v>
@@ -11805,7 +11802,7 @@
         <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D156" t="s">
         <v>20</v>
@@ -11847,7 +11844,7 @@
         <v>20</v>
       </c>
       <c r="Q156" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R156" t="s">
         <v>23</v>
@@ -11870,7 +11867,7 @@
         <v>92</v>
       </c>
       <c r="C157" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D157" t="s">
         <v>20</v>
@@ -11891,7 +11888,7 @@
         <v>192</v>
       </c>
       <c r="J157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K157" t="s">
         <v>20</v>
@@ -11912,7 +11909,7 @@
         <v>20</v>
       </c>
       <c r="Q157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R157" t="s">
         <v>23</v>
@@ -11935,7 +11932,7 @@
         <v>31</v>
       </c>
       <c r="C158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D158" t="s">
         <v>178</v>
@@ -11977,7 +11974,7 @@
         <v>20</v>
       </c>
       <c r="Q158" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R158" t="s">
         <v>23</v>
@@ -12000,7 +11997,7 @@
         <v>31</v>
       </c>
       <c r="C159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D159" t="s">
         <v>178</v>
@@ -12042,7 +12039,7 @@
         <v>20</v>
       </c>
       <c r="Q159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R159" t="s">
         <v>23</v>
@@ -12065,7 +12062,7 @@
         <v>31</v>
       </c>
       <c r="C160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D160" t="s">
         <v>178</v>
@@ -12107,7 +12104,7 @@
         <v>20</v>
       </c>
       <c r="Q160" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R160" t="s">
         <v>23</v>
@@ -12130,7 +12127,7 @@
         <v>31</v>
       </c>
       <c r="C161" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D161" t="s">
         <v>178</v>
@@ -12148,7 +12145,7 @@
         <v>20</v>
       </c>
       <c r="I161" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J161" t="s">
         <v>184</v>
@@ -12172,7 +12169,7 @@
         <v>20</v>
       </c>
       <c r="Q161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R161" t="s">
         <v>23</v>
@@ -12195,25 +12192,25 @@
         <v>31</v>
       </c>
       <c r="C162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D162" t="s">
+        <v>357</v>
+      </c>
+      <c r="E162" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" t="s">
         <v>358</v>
-      </c>
-      <c r="E162" t="s">
-        <v>20</v>
-      </c>
-      <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>20</v>
-      </c>
-      <c r="H162" t="s">
-        <v>20</v>
-      </c>
-      <c r="I162" t="s">
-        <v>359</v>
       </c>
       <c r="J162" t="s">
         <v>184</v>
@@ -12237,7 +12234,7 @@
         <v>20</v>
       </c>
       <c r="Q162" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R162" t="s">
         <v>23</v>
@@ -12260,7 +12257,7 @@
         <v>31</v>
       </c>
       <c r="C163" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D163" t="s">
         <v>20</v>
@@ -12302,7 +12299,7 @@
         <v>20</v>
       </c>
       <c r="Q163" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R163" t="s">
         <v>23</v>
@@ -12325,7 +12322,7 @@
         <v>31</v>
       </c>
       <c r="C164" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D164" t="s">
         <v>178</v>
@@ -12367,7 +12364,7 @@
         <v>20</v>
       </c>
       <c r="Q164" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R164" t="s">
         <v>23</v>
@@ -12390,10 +12387,10 @@
         <v>31</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E165" t="s">
         <v>20</v>
@@ -12432,7 +12429,7 @@
         <v>20</v>
       </c>
       <c r="Q165" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R165" t="s">
         <v>23</v>
@@ -12449,13 +12446,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B166" t="s">
         <v>31</v>
       </c>
       <c r="C166" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D166" t="s">
         <v>20</v>
@@ -12497,7 +12494,7 @@
         <v>20</v>
       </c>
       <c r="Q166" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R166" t="s">
         <v>23</v>
@@ -12520,7 +12517,7 @@
         <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D167" t="s">
         <v>20</v>
@@ -12562,7 +12559,7 @@
         <v>20</v>
       </c>
       <c r="Q167" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R167" t="s">
         <v>23</v>
@@ -12585,7 +12582,7 @@
         <v>31</v>
       </c>
       <c r="C168" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D168" t="s">
         <v>20</v>
@@ -12627,7 +12624,7 @@
         <v>20</v>
       </c>
       <c r="Q168" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R168" t="s">
         <v>23</v>
@@ -12650,7 +12647,7 @@
         <v>31</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D169" t="s">
         <v>20</v>
@@ -12692,7 +12689,7 @@
         <v>20</v>
       </c>
       <c r="Q169" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R169" t="s">
         <v>23</v>
@@ -12709,13 +12706,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B170" t="s">
         <v>31</v>
       </c>
       <c r="C170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D170" t="s">
         <v>20</v>
@@ -12757,7 +12754,7 @@
         <v>20</v>
       </c>
       <c r="Q170" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R170" t="s">
         <v>23</v>
@@ -12774,55 +12771,55 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B171" t="s">
         <v>31</v>
       </c>
       <c r="C171" t="s">
+        <v>368</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" t="s">
+        <v>20</v>
+      </c>
+      <c r="F171" t="s">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" t="s">
+        <v>20</v>
+      </c>
+      <c r="J171" t="s">
+        <v>20</v>
+      </c>
+      <c r="K171" t="s">
+        <v>20</v>
+      </c>
+      <c r="L171" t="s">
+        <v>20</v>
+      </c>
+      <c r="M171" t="s">
+        <v>20</v>
+      </c>
+      <c r="N171" t="s">
+        <v>20</v>
+      </c>
+      <c r="O171" t="s">
+        <v>20</v>
+      </c>
+      <c r="P171" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q171" t="s">
         <v>369</v>
-      </c>
-      <c r="D171" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" t="s">
-        <v>20</v>
-      </c>
-      <c r="F171" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" t="s">
-        <v>20</v>
-      </c>
-      <c r="H171" t="s">
-        <v>20</v>
-      </c>
-      <c r="I171" t="s">
-        <v>20</v>
-      </c>
-      <c r="J171" t="s">
-        <v>20</v>
-      </c>
-      <c r="K171" t="s">
-        <v>20</v>
-      </c>
-      <c r="L171" t="s">
-        <v>20</v>
-      </c>
-      <c r="M171" t="s">
-        <v>20</v>
-      </c>
-      <c r="N171" t="s">
-        <v>20</v>
-      </c>
-      <c r="O171" t="s">
-        <v>20</v>
-      </c>
-      <c r="P171" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>370</v>
       </c>
       <c r="R171" t="s">
         <v>23</v>
@@ -12839,13 +12836,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B172" t="s">
         <v>31</v>
       </c>
       <c r="C172" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D172" t="s">
         <v>20</v>
@@ -12887,7 +12884,7 @@
         <v>20</v>
       </c>
       <c r="Q172" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R172" t="s">
         <v>23</v>
@@ -12910,49 +12907,49 @@
         <v>160</v>
       </c>
       <c r="C173" t="s">
+        <v>371</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" t="s">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" t="s">
+        <v>20</v>
+      </c>
+      <c r="J173" t="s">
+        <v>20</v>
+      </c>
+      <c r="K173" t="s">
+        <v>20</v>
+      </c>
+      <c r="L173" t="s">
+        <v>20</v>
+      </c>
+      <c r="M173" t="s">
+        <v>20</v>
+      </c>
+      <c r="N173" t="s">
+        <v>20</v>
+      </c>
+      <c r="O173" t="s">
+        <v>20</v>
+      </c>
+      <c r="P173" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q173" t="s">
         <v>372</v>
-      </c>
-      <c r="D173" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173" t="s">
-        <v>20</v>
-      </c>
-      <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>20</v>
-      </c>
-      <c r="H173" t="s">
-        <v>20</v>
-      </c>
-      <c r="I173" t="s">
-        <v>20</v>
-      </c>
-      <c r="J173" t="s">
-        <v>20</v>
-      </c>
-      <c r="K173" t="s">
-        <v>20</v>
-      </c>
-      <c r="L173" t="s">
-        <v>20</v>
-      </c>
-      <c r="M173" t="s">
-        <v>20</v>
-      </c>
-      <c r="N173" t="s">
-        <v>20</v>
-      </c>
-      <c r="O173" t="s">
-        <v>20</v>
-      </c>
-      <c r="P173" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>373</v>
       </c>
       <c r="R173" t="s">
         <v>23</v>
@@ -12975,49 +12972,49 @@
         <v>202</v>
       </c>
       <c r="C174" t="s">
+        <v>373</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>20</v>
+      </c>
+      <c r="H174" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" t="s">
+        <v>20</v>
+      </c>
+      <c r="J174" t="s">
+        <v>20</v>
+      </c>
+      <c r="K174" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174" t="s">
+        <v>20</v>
+      </c>
+      <c r="M174" t="s">
+        <v>20</v>
+      </c>
+      <c r="N174" t="s">
+        <v>20</v>
+      </c>
+      <c r="O174" t="s">
+        <v>20</v>
+      </c>
+      <c r="P174" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q174" t="s">
         <v>374</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" t="s">
-        <v>20</v>
-      </c>
-      <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>20</v>
-      </c>
-      <c r="H174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I174" t="s">
-        <v>20</v>
-      </c>
-      <c r="J174" t="s">
-        <v>20</v>
-      </c>
-      <c r="K174" t="s">
-        <v>20</v>
-      </c>
-      <c r="L174" t="s">
-        <v>20</v>
-      </c>
-      <c r="M174" t="s">
-        <v>20</v>
-      </c>
-      <c r="N174" t="s">
-        <v>20</v>
-      </c>
-      <c r="O174" t="s">
-        <v>20</v>
-      </c>
-      <c r="P174" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>375</v>
       </c>
       <c r="R174" t="s">
         <v>23</v>
@@ -13034,55 +13031,55 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B175" t="s">
         <v>31</v>
       </c>
       <c r="C175" t="s">
+        <v>376</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" t="s">
+        <v>20</v>
+      </c>
+      <c r="K175" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175" t="s">
+        <v>20</v>
+      </c>
+      <c r="M175" t="s">
+        <v>20</v>
+      </c>
+      <c r="N175" t="s">
+        <v>20</v>
+      </c>
+      <c r="O175" t="s">
+        <v>20</v>
+      </c>
+      <c r="P175" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q175" t="s">
         <v>377</v>
-      </c>
-      <c r="D175" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175" t="s">
-        <v>20</v>
-      </c>
-      <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" t="s">
-        <v>20</v>
-      </c>
-      <c r="H175" t="s">
-        <v>20</v>
-      </c>
-      <c r="I175" t="s">
-        <v>20</v>
-      </c>
-      <c r="J175" t="s">
-        <v>20</v>
-      </c>
-      <c r="K175" t="s">
-        <v>20</v>
-      </c>
-      <c r="L175" t="s">
-        <v>20</v>
-      </c>
-      <c r="M175" t="s">
-        <v>20</v>
-      </c>
-      <c r="N175" t="s">
-        <v>20</v>
-      </c>
-      <c r="O175" t="s">
-        <v>20</v>
-      </c>
-      <c r="P175" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>378</v>
       </c>
       <c r="R175" t="s">
         <v>23</v>
@@ -13099,13 +13096,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B176" t="s">
         <v>92</v>
       </c>
       <c r="C176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D176" t="s">
         <v>20</v>
@@ -13147,7 +13144,7 @@
         <v>20</v>
       </c>
       <c r="Q176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R176" t="s">
         <v>23</v>
@@ -13164,55 +13161,55 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B177" t="s">
         <v>202</v>
       </c>
       <c r="C177" t="s">
+        <v>380</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" t="s">
+        <v>20</v>
+      </c>
+      <c r="F177" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" t="s">
+        <v>20</v>
+      </c>
+      <c r="J177" t="s">
+        <v>20</v>
+      </c>
+      <c r="K177" t="s">
+        <v>20</v>
+      </c>
+      <c r="L177" t="s">
+        <v>20</v>
+      </c>
+      <c r="M177" t="s">
+        <v>20</v>
+      </c>
+      <c r="N177" t="s">
+        <v>20</v>
+      </c>
+      <c r="O177" t="s">
+        <v>20</v>
+      </c>
+      <c r="P177" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q177" t="s">
         <v>381</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" t="s">
-        <v>20</v>
-      </c>
-      <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
-      <c r="H177" t="s">
-        <v>20</v>
-      </c>
-      <c r="I177" t="s">
-        <v>20</v>
-      </c>
-      <c r="J177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K177" t="s">
-        <v>20</v>
-      </c>
-      <c r="L177" t="s">
-        <v>20</v>
-      </c>
-      <c r="M177" t="s">
-        <v>20</v>
-      </c>
-      <c r="N177" t="s">
-        <v>20</v>
-      </c>
-      <c r="O177" t="s">
-        <v>20</v>
-      </c>
-      <c r="P177" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>382</v>
       </c>
       <c r="R177" t="s">
         <v>23</v>
@@ -13229,13 +13226,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B178" t="s">
         <v>31</v>
       </c>
       <c r="C178" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D178" t="s">
         <v>20</v>
@@ -13277,7 +13274,7 @@
         <v>20</v>
       </c>
       <c r="Q178" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R178" t="s">
         <v>23</v>
@@ -13294,13 +13291,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B179" t="s">
         <v>99</v>
       </c>
       <c r="C179" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D179" t="s">
         <v>20</v>
@@ -13342,7 +13339,7 @@
         <v>20</v>
       </c>
       <c r="Q179" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R179" t="s">
         <v>23</v>
@@ -13359,13 +13356,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B180" t="s">
         <v>31</v>
       </c>
       <c r="C180" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D180" t="s">
         <v>20</v>
@@ -13407,7 +13404,7 @@
         <v>20</v>
       </c>
       <c r="Q180" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R180" t="s">
         <v>23</v>
@@ -13430,7 +13427,7 @@
         <v>31</v>
       </c>
       <c r="C181" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D181" t="s">
         <v>20</v>
@@ -13472,7 +13469,7 @@
         <v>20</v>
       </c>
       <c r="Q181" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R181" t="s">
         <v>23</v>
@@ -13489,13 +13486,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B182" t="s">
         <v>92</v>
       </c>
       <c r="C182" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D182" t="s">
         <v>20</v>
@@ -13537,7 +13534,7 @@
         <v>20</v>
       </c>
       <c r="Q182" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R182" t="s">
         <v>23</v>
@@ -13554,13 +13551,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B183" t="s">
         <v>31</v>
       </c>
       <c r="C183" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D183" t="s">
         <v>20</v>
@@ -13602,7 +13599,7 @@
         <v>20</v>
       </c>
       <c r="Q183" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="R183" t="s">
         <v>23</v>
@@ -13625,55 +13622,55 @@
         <v>99</v>
       </c>
       <c r="C184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D184" t="s">
+        <v>388</v>
+      </c>
+      <c r="E184" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184" t="s">
+        <v>20</v>
+      </c>
+      <c r="G184" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184" t="s">
+        <v>20</v>
+      </c>
+      <c r="I184" t="s">
+        <v>243</v>
+      </c>
+      <c r="J184" t="s">
+        <v>243</v>
+      </c>
+      <c r="K184" t="s">
+        <v>20</v>
+      </c>
+      <c r="L184" t="s">
+        <v>20</v>
+      </c>
+      <c r="M184" t="s">
+        <v>20</v>
+      </c>
+      <c r="N184" t="s">
+        <v>20</v>
+      </c>
+      <c r="O184" t="s">
+        <v>20</v>
+      </c>
+      <c r="P184" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q184" t="s">
         <v>389</v>
       </c>
-      <c r="E184" t="s">
-        <v>20</v>
-      </c>
-      <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>20</v>
-      </c>
-      <c r="H184" t="s">
-        <v>20</v>
-      </c>
-      <c r="I184" t="s">
-        <v>244</v>
-      </c>
-      <c r="J184" t="s">
-        <v>244</v>
-      </c>
-      <c r="K184" t="s">
-        <v>20</v>
-      </c>
-      <c r="L184" t="s">
-        <v>20</v>
-      </c>
-      <c r="M184" t="s">
-        <v>20</v>
-      </c>
-      <c r="N184" t="s">
-        <v>20</v>
-      </c>
-      <c r="O184" t="s">
-        <v>20</v>
-      </c>
-      <c r="P184" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q184" t="s">
+      <c r="R184" t="s">
+        <v>23</v>
+      </c>
+      <c r="S184" t="s">
         <v>390</v>
-      </c>
-      <c r="R184" t="s">
-        <v>23</v>
-      </c>
-      <c r="S184" t="s">
-        <v>391</v>
       </c>
       <c r="T184" t="s">
         <v>23</v>
@@ -13690,7 +13687,7 @@
         <v>99</v>
       </c>
       <c r="C185" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D185" t="s">
         <v>222</v>
@@ -13708,7 +13705,7 @@
         <v>20</v>
       </c>
       <c r="I185" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J185" t="s">
         <v>192</v>
@@ -13732,7 +13729,7 @@
         <v>20</v>
       </c>
       <c r="Q185" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R185" t="s">
         <v>23</v>
@@ -13755,10 +13752,10 @@
         <v>99</v>
       </c>
       <c r="C186" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D186" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E186" t="s">
         <v>20</v>
@@ -13773,7 +13770,7 @@
         <v>20</v>
       </c>
       <c r="I186" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J186" t="s">
         <v>192</v>
@@ -13797,7 +13794,7 @@
         <v>20</v>
       </c>
       <c r="Q186" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R186" t="s">
         <v>23</v>
@@ -13814,16 +13811,16 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B187" t="s">
         <v>92</v>
       </c>
       <c r="C187" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D187" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E187" t="s">
         <v>20</v>
@@ -13862,7 +13859,7 @@
         <v>20</v>
       </c>
       <c r="Q187" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R187" t="s">
         <v>23</v>
@@ -13885,10 +13882,10 @@
         <v>92</v>
       </c>
       <c r="C188" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D188" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E188" t="s">
         <v>20</v>
@@ -13906,7 +13903,7 @@
         <v>192</v>
       </c>
       <c r="J188" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K188" t="s">
         <v>20</v>
@@ -13927,13 +13924,13 @@
         <v>20</v>
       </c>
       <c r="Q188" t="s">
+        <v>397</v>
+      </c>
+      <c r="R188" t="s">
+        <v>23</v>
+      </c>
+      <c r="S188" t="s">
         <v>398</v>
-      </c>
-      <c r="R188" t="s">
-        <v>23</v>
-      </c>
-      <c r="S188" t="s">
-        <v>399</v>
       </c>
       <c r="T188" t="s">
         <v>23</v>
@@ -13950,10 +13947,10 @@
         <v>92</v>
       </c>
       <c r="C189" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D189" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E189" t="s">
         <v>20</v>
@@ -13992,7 +13989,7 @@
         <v>20</v>
       </c>
       <c r="Q189" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R189" t="s">
         <v>23</v>
@@ -14015,10 +14012,10 @@
         <v>92</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D190" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E190" t="s">
         <v>20</v>
@@ -14057,7 +14054,7 @@
         <v>20</v>
       </c>
       <c r="Q190" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R190" t="s">
         <v>23</v>
@@ -14080,11 +14077,11 @@
         <v>212</v>
       </c>
       <c r="C191" t="s">
+        <v>403</v>
+      </c>
+      <c r="D191" t="s">
         <v>404</v>
       </c>
-      <c r="D191" t="s">
-        <v>405</v>
-      </c>
       <c r="E191" t="s">
         <v>20</v>
       </c>
@@ -14098,7 +14095,7 @@
         <v>20</v>
       </c>
       <c r="I191" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J191" t="s">
         <v>192</v>
@@ -14122,7 +14119,7 @@
         <v>20</v>
       </c>
       <c r="Q191" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R191" t="s">
         <v>23</v>
@@ -14145,10 +14142,10 @@
         <v>31</v>
       </c>
       <c r="C192" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D192" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E192" t="s">
         <v>20</v>
@@ -14166,28 +14163,28 @@
         <v>174</v>
       </c>
       <c r="J192" t="s">
+        <v>406</v>
+      </c>
+      <c r="K192" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" t="s">
+        <v>20</v>
+      </c>
+      <c r="M192" t="s">
+        <v>20</v>
+      </c>
+      <c r="N192" t="s">
+        <v>20</v>
+      </c>
+      <c r="O192" t="s">
+        <v>20</v>
+      </c>
+      <c r="P192" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q192" t="s">
         <v>407</v>
-      </c>
-      <c r="K192" t="s">
-        <v>20</v>
-      </c>
-      <c r="L192" t="s">
-        <v>20</v>
-      </c>
-      <c r="M192" t="s">
-        <v>20</v>
-      </c>
-      <c r="N192" t="s">
-        <v>20</v>
-      </c>
-      <c r="O192" t="s">
-        <v>20</v>
-      </c>
-      <c r="P192" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>408</v>
       </c>
       <c r="R192" t="s">
         <v>23</v>
@@ -14204,16 +14201,16 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>408</v>
+      </c>
+      <c r="B193" t="s">
         <v>409</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>410</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>411</v>
-      </c>
-      <c r="D193" t="s">
-        <v>412</v>
       </c>
       <c r="E193" t="s">
         <v>20</v>
@@ -14252,13 +14249,13 @@
         <v>20</v>
       </c>
       <c r="Q193" t="s">
+        <v>412</v>
+      </c>
+      <c r="R193" t="s">
+        <v>23</v>
+      </c>
+      <c r="S193" t="s">
         <v>413</v>
-      </c>
-      <c r="R193" t="s">
-        <v>23</v>
-      </c>
-      <c r="S193" t="s">
-        <v>414</v>
       </c>
       <c r="T193" t="s">
         <v>23</v>
@@ -14275,10 +14272,10 @@
         <v>92</v>
       </c>
       <c r="C194" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D194" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E194" t="s">
         <v>20</v>
@@ -14317,7 +14314,7 @@
         <v>20</v>
       </c>
       <c r="Q194" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R194" t="s">
         <v>23</v>
@@ -14340,10 +14337,10 @@
         <v>99</v>
       </c>
       <c r="C195" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D195" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E195" t="s">
         <v>20</v>
@@ -14382,7 +14379,7 @@
         <v>20</v>
       </c>
       <c r="Q195" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R195" t="s">
         <v>23</v>
@@ -14405,7 +14402,7 @@
         <v>99</v>
       </c>
       <c r="C196" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D196" t="s">
         <v>20</v>
@@ -14447,7 +14444,7 @@
         <v>20</v>
       </c>
       <c r="Q196" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R196" t="s">
         <v>23</v>
@@ -14470,10 +14467,10 @@
         <v>212</v>
       </c>
       <c r="C197" t="s">
+        <v>419</v>
+      </c>
+      <c r="D197" t="s">
         <v>420</v>
-      </c>
-      <c r="D197" t="s">
-        <v>421</v>
       </c>
       <c r="E197" t="s">
         <v>20</v>
@@ -14512,7 +14509,7 @@
         <v>20</v>
       </c>
       <c r="Q197" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R197" t="s">
         <v>23</v>
@@ -14535,10 +14532,10 @@
         <v>99</v>
       </c>
       <c r="C198" t="s">
+        <v>422</v>
+      </c>
+      <c r="D198" t="s">
         <v>423</v>
-      </c>
-      <c r="D198" t="s">
-        <v>424</v>
       </c>
       <c r="E198" t="s">
         <v>20</v>
@@ -14577,7 +14574,7 @@
         <v>20</v>
       </c>
       <c r="Q198" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R198" t="s">
         <v>23</v>
@@ -14600,10 +14597,10 @@
         <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D199" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E199" t="s">
         <v>20</v>
@@ -14642,7 +14639,7 @@
         <v>20</v>
       </c>
       <c r="Q199" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R199" t="s">
         <v>23</v>
@@ -14665,7 +14662,7 @@
         <v>212</v>
       </c>
       <c r="C200" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D200" t="s">
         <v>20</v>
@@ -14707,7 +14704,7 @@
         <v>20</v>
       </c>
       <c r="Q200" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R200" t="s">
         <v>23</v>
@@ -14730,10 +14727,10 @@
         <v>212</v>
       </c>
       <c r="C201" t="s">
+        <v>428</v>
+      </c>
+      <c r="D201" t="s">
         <v>429</v>
-      </c>
-      <c r="D201" t="s">
-        <v>430</v>
       </c>
       <c r="E201" t="s">
         <v>20</v>
@@ -14772,7 +14769,7 @@
         <v>20</v>
       </c>
       <c r="Q201" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R201" t="s">
         <v>23</v>
@@ -14789,13 +14786,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
         <v>99</v>
       </c>
       <c r="C202" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D202" t="s">
         <v>20</v>
@@ -14837,7 +14834,7 @@
         <v>20</v>
       </c>
       <c r="Q202" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R202" t="s">
         <v>23</v>
@@ -14854,13 +14851,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B203" t="s">
         <v>31</v>
       </c>
       <c r="C203" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D203" t="s">
         <v>20</v>
@@ -14902,7 +14899,7 @@
         <v>20</v>
       </c>
       <c r="Q203" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R203" t="s">
         <v>23</v>
@@ -14919,55 +14916,55 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>434</v>
+      </c>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" t="s">
         <v>435</v>
       </c>
-      <c r="B204" t="s">
-        <v>20</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>436</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204" t="s">
+        <v>20</v>
+      </c>
+      <c r="G204" t="s">
+        <v>20</v>
+      </c>
+      <c r="H204" t="s">
+        <v>20</v>
+      </c>
+      <c r="I204" t="s">
+        <v>20</v>
+      </c>
+      <c r="J204" t="s">
+        <v>20</v>
+      </c>
+      <c r="K204" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" t="s">
+        <v>20</v>
+      </c>
+      <c r="M204" t="s">
+        <v>20</v>
+      </c>
+      <c r="N204" t="s">
+        <v>20</v>
+      </c>
+      <c r="O204" t="s">
+        <v>20</v>
+      </c>
+      <c r="P204" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q204" t="s">
         <v>437</v>
-      </c>
-      <c r="E204" t="s">
-        <v>20</v>
-      </c>
-      <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>20</v>
-      </c>
-      <c r="H204" t="s">
-        <v>20</v>
-      </c>
-      <c r="I204" t="s">
-        <v>20</v>
-      </c>
-      <c r="J204" t="s">
-        <v>20</v>
-      </c>
-      <c r="K204" t="s">
-        <v>20</v>
-      </c>
-      <c r="L204" t="s">
-        <v>20</v>
-      </c>
-      <c r="M204" t="s">
-        <v>20</v>
-      </c>
-      <c r="N204" t="s">
-        <v>20</v>
-      </c>
-      <c r="O204" t="s">
-        <v>20</v>
-      </c>
-      <c r="P204" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>438</v>
       </c>
       <c r="R204" t="s">
         <v>23</v>
@@ -14984,7 +14981,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
@@ -14993,7 +14990,7 @@
         <v>20</v>
       </c>
       <c r="D205" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E205" t="s">
         <v>20</v>
@@ -15032,7 +15029,7 @@
         <v>20</v>
       </c>
       <c r="Q205" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R205" t="s">
         <v>23</v>
@@ -15049,7 +15046,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B206" t="s">
         <v>20</v>
@@ -15058,7 +15055,7 @@
         <v>20</v>
       </c>
       <c r="D206" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E206" t="s">
         <v>20</v>
@@ -15097,7 +15094,7 @@
         <v>20</v>
       </c>
       <c r="Q206" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R206" t="s">
         <v>23</v>
@@ -15114,55 +15111,55 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>440</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D207" t="s">
+        <v>436</v>
+      </c>
+      <c r="E207" t="s">
+        <v>20</v>
+      </c>
+      <c r="F207" t="s">
+        <v>20</v>
+      </c>
+      <c r="G207" t="s">
+        <v>20</v>
+      </c>
+      <c r="H207" t="s">
+        <v>20</v>
+      </c>
+      <c r="I207" t="s">
+        <v>20</v>
+      </c>
+      <c r="J207" t="s">
+        <v>20</v>
+      </c>
+      <c r="K207" t="s">
+        <v>20</v>
+      </c>
+      <c r="L207" t="s">
+        <v>20</v>
+      </c>
+      <c r="M207" t="s">
+        <v>20</v>
+      </c>
+      <c r="N207" t="s">
+        <v>20</v>
+      </c>
+      <c r="O207" t="s">
+        <v>20</v>
+      </c>
+      <c r="P207" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q207" t="s">
         <v>441</v>
-      </c>
-      <c r="B207" t="s">
-        <v>20</v>
-      </c>
-      <c r="C207" t="s">
-        <v>20</v>
-      </c>
-      <c r="D207" t="s">
-        <v>437</v>
-      </c>
-      <c r="E207" t="s">
-        <v>20</v>
-      </c>
-      <c r="F207" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" t="s">
-        <v>20</v>
-      </c>
-      <c r="H207" t="s">
-        <v>20</v>
-      </c>
-      <c r="I207" t="s">
-        <v>20</v>
-      </c>
-      <c r="J207" t="s">
-        <v>20</v>
-      </c>
-      <c r="K207" t="s">
-        <v>20</v>
-      </c>
-      <c r="L207" t="s">
-        <v>20</v>
-      </c>
-      <c r="M207" t="s">
-        <v>20</v>
-      </c>
-      <c r="N207" t="s">
-        <v>20</v>
-      </c>
-      <c r="O207" t="s">
-        <v>20</v>
-      </c>
-      <c r="P207" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q207" t="s">
-        <v>442</v>
       </c>
       <c r="R207" t="s">
         <v>23</v>
@@ -15179,16 +15176,16 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B208" t="s">
         <v>160</v>
       </c>
       <c r="C208" t="s">
+        <v>443</v>
+      </c>
+      <c r="D208" t="s">
         <v>444</v>
-      </c>
-      <c r="D208" t="s">
-        <v>445</v>
       </c>
       <c r="E208" t="s">
         <v>20</v>
@@ -15206,28 +15203,28 @@
         <v>184</v>
       </c>
       <c r="J208" t="s">
+        <v>445</v>
+      </c>
+      <c r="K208" t="s">
+        <v>20</v>
+      </c>
+      <c r="L208" t="s">
+        <v>20</v>
+      </c>
+      <c r="M208" t="s">
+        <v>20</v>
+      </c>
+      <c r="N208" t="s">
+        <v>20</v>
+      </c>
+      <c r="O208" t="s">
+        <v>20</v>
+      </c>
+      <c r="P208" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q208" t="s">
         <v>446</v>
-      </c>
-      <c r="K208" t="s">
-        <v>20</v>
-      </c>
-      <c r="L208" t="s">
-        <v>20</v>
-      </c>
-      <c r="M208" t="s">
-        <v>20</v>
-      </c>
-      <c r="N208" t="s">
-        <v>20</v>
-      </c>
-      <c r="O208" t="s">
-        <v>20</v>
-      </c>
-      <c r="P208" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q208" t="s">
-        <v>447</v>
       </c>
       <c r="R208" t="s">
         <v>23</v>
@@ -15244,16 +15241,16 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B209" t="s">
         <v>160</v>
       </c>
       <c r="C209" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D209" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E209" t="s">
         <v>20</v>
@@ -15292,7 +15289,7 @@
         <v>20</v>
       </c>
       <c r="Q209" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R209" t="s">
         <v>23</v>
@@ -15309,16 +15306,16 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B210" t="s">
         <v>160</v>
       </c>
       <c r="C210" t="s">
+        <v>443</v>
+      </c>
+      <c r="D210" t="s">
         <v>444</v>
-      </c>
-      <c r="D210" t="s">
-        <v>445</v>
       </c>
       <c r="E210" t="s">
         <v>20</v>
@@ -15357,7 +15354,7 @@
         <v>20</v>
       </c>
       <c r="Q210" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R210" t="s">
         <v>23</v>
@@ -15374,17 +15371,17 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B211" t="s">
         <v>160</v>
       </c>
       <c r="C211" t="s">
+        <v>443</v>
+      </c>
+      <c r="D211" t="s">
         <v>444</v>
       </c>
-      <c r="D211" t="s">
-        <v>445</v>
-      </c>
       <c r="E211" t="s">
         <v>20</v>
       </c>
@@ -15398,10 +15395,10 @@
         <v>20</v>
       </c>
       <c r="I211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K211" t="s">
         <v>20</v>
@@ -15422,7 +15419,7 @@
         <v>20</v>
       </c>
       <c r="Q211" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R211" t="s">
         <v>23</v>
@@ -15439,16 +15436,16 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B212" t="s">
         <v>160</v>
       </c>
       <c r="C212" t="s">
+        <v>443</v>
+      </c>
+      <c r="D212" t="s">
         <v>444</v>
-      </c>
-      <c r="D212" t="s">
-        <v>445</v>
       </c>
       <c r="E212" t="s">
         <v>20</v>
@@ -15487,7 +15484,7 @@
         <v>20</v>
       </c>
       <c r="Q212" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R212" t="s">
         <v>23</v>
@@ -15504,17 +15501,17 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B213" t="s">
         <v>160</v>
       </c>
       <c r="C213" t="s">
+        <v>443</v>
+      </c>
+      <c r="D213" t="s">
         <v>444</v>
       </c>
-      <c r="D213" t="s">
-        <v>445</v>
-      </c>
       <c r="E213" t="s">
         <v>20</v>
       </c>
@@ -15528,10 +15525,10 @@
         <v>20</v>
       </c>
       <c r="I213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K213" t="s">
         <v>20</v>
@@ -15552,7 +15549,7 @@
         <v>20</v>
       </c>
       <c r="Q213" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R213" t="s">
         <v>23</v>
@@ -15569,13 +15566,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B214" t="s">
         <v>160</v>
       </c>
       <c r="C214" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D214" t="s">
         <v>20</v>
@@ -15617,7 +15614,7 @@
         <v>20</v>
       </c>
       <c r="Q214" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R214" t="s">
         <v>23</v>
@@ -15634,16 +15631,16 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B215" t="s">
         <v>31</v>
       </c>
       <c r="C215" t="s">
+        <v>456</v>
+      </c>
+      <c r="D215" t="s">
         <v>457</v>
-      </c>
-      <c r="D215" t="s">
-        <v>458</v>
       </c>
       <c r="E215" t="s">
         <v>20</v>
@@ -15682,7 +15679,7 @@
         <v>20</v>
       </c>
       <c r="Q215" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R215" t="s">
         <v>23</v>
@@ -15699,16 +15696,16 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B216" t="s">
         <v>92</v>
       </c>
       <c r="C216" t="s">
+        <v>460</v>
+      </c>
+      <c r="D216" t="s">
         <v>461</v>
-      </c>
-      <c r="D216" t="s">
-        <v>462</v>
       </c>
       <c r="E216" t="s">
         <v>20</v>
@@ -15747,7 +15744,7 @@
         <v>20</v>
       </c>
       <c r="Q216" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R216" t="s">
         <v>23</v>
@@ -15764,16 +15761,16 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B217" t="s">
         <v>92</v>
       </c>
       <c r="C217" t="s">
+        <v>460</v>
+      </c>
+      <c r="D217" t="s">
         <v>461</v>
-      </c>
-      <c r="D217" t="s">
-        <v>462</v>
       </c>
       <c r="E217" t="s">
         <v>20</v>
@@ -15812,7 +15809,7 @@
         <v>20</v>
       </c>
       <c r="Q217" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R217" t="s">
         <v>23</v>
@@ -15829,16 +15826,16 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B218" t="s">
         <v>92</v>
       </c>
       <c r="C218" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D218" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E218" t="s">
         <v>20</v>
@@ -15877,7 +15874,7 @@
         <v>20</v>
       </c>
       <c r="Q218" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R218" t="s">
         <v>23</v>
@@ -15894,55 +15891,55 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B219" t="s">
         <v>31</v>
       </c>
       <c r="C219" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D219" t="s">
+        <v>466</v>
+      </c>
+      <c r="E219" t="s">
+        <v>20</v>
+      </c>
+      <c r="F219" t="s">
+        <v>20</v>
+      </c>
+      <c r="G219" t="s">
+        <v>20</v>
+      </c>
+      <c r="H219" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219" t="s">
+        <v>319</v>
+      </c>
+      <c r="J219" t="s">
+        <v>319</v>
+      </c>
+      <c r="K219" t="s">
+        <v>20</v>
+      </c>
+      <c r="L219" t="s">
+        <v>20</v>
+      </c>
+      <c r="M219" t="s">
+        <v>20</v>
+      </c>
+      <c r="N219" t="s">
+        <v>20</v>
+      </c>
+      <c r="O219" t="s">
+        <v>20</v>
+      </c>
+      <c r="P219" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q219" t="s">
         <v>467</v>
-      </c>
-      <c r="E219" t="s">
-        <v>20</v>
-      </c>
-      <c r="F219" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" t="s">
-        <v>20</v>
-      </c>
-      <c r="H219" t="s">
-        <v>20</v>
-      </c>
-      <c r="I219" t="s">
-        <v>320</v>
-      </c>
-      <c r="J219" t="s">
-        <v>320</v>
-      </c>
-      <c r="K219" t="s">
-        <v>20</v>
-      </c>
-      <c r="L219" t="s">
-        <v>20</v>
-      </c>
-      <c r="M219" t="s">
-        <v>20</v>
-      </c>
-      <c r="N219" t="s">
-        <v>20</v>
-      </c>
-      <c r="O219" t="s">
-        <v>20</v>
-      </c>
-      <c r="P219" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>468</v>
       </c>
       <c r="R219" t="s">
         <v>23</v>
@@ -15959,55 +15956,55 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B220" t="s">
         <v>99</v>
       </c>
       <c r="C220" t="s">
+        <v>468</v>
+      </c>
+      <c r="D220" t="s">
         <v>469</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
+        <v>20</v>
+      </c>
+      <c r="F220" t="s">
+        <v>20</v>
+      </c>
+      <c r="G220" t="s">
+        <v>20</v>
+      </c>
+      <c r="H220" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" t="s">
+        <v>319</v>
+      </c>
+      <c r="J220" t="s">
+        <v>243</v>
+      </c>
+      <c r="K220" t="s">
+        <v>20</v>
+      </c>
+      <c r="L220" t="s">
+        <v>20</v>
+      </c>
+      <c r="M220" t="s">
+        <v>20</v>
+      </c>
+      <c r="N220" t="s">
+        <v>20</v>
+      </c>
+      <c r="O220" t="s">
+        <v>20</v>
+      </c>
+      <c r="P220" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q220" t="s">
         <v>470</v>
-      </c>
-      <c r="E220" t="s">
-        <v>20</v>
-      </c>
-      <c r="F220" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" t="s">
-        <v>20</v>
-      </c>
-      <c r="H220" t="s">
-        <v>20</v>
-      </c>
-      <c r="I220" t="s">
-        <v>320</v>
-      </c>
-      <c r="J220" t="s">
-        <v>244</v>
-      </c>
-      <c r="K220" t="s">
-        <v>20</v>
-      </c>
-      <c r="L220" t="s">
-        <v>20</v>
-      </c>
-      <c r="M220" t="s">
-        <v>20</v>
-      </c>
-      <c r="N220" t="s">
-        <v>20</v>
-      </c>
-      <c r="O220" t="s">
-        <v>20</v>
-      </c>
-      <c r="P220" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>471</v>
       </c>
       <c r="R220" t="s">
         <v>23</v>
@@ -16024,55 +16021,55 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B221" t="s">
         <v>99</v>
       </c>
       <c r="C221" t="s">
+        <v>471</v>
+      </c>
+      <c r="D221" t="s">
+        <v>469</v>
+      </c>
+      <c r="E221" t="s">
+        <v>20</v>
+      </c>
+      <c r="F221" t="s">
+        <v>20</v>
+      </c>
+      <c r="G221" t="s">
+        <v>20</v>
+      </c>
+      <c r="H221" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221" t="s">
+        <v>319</v>
+      </c>
+      <c r="J221" t="s">
+        <v>345</v>
+      </c>
+      <c r="K221" t="s">
+        <v>20</v>
+      </c>
+      <c r="L221" t="s">
+        <v>20</v>
+      </c>
+      <c r="M221" t="s">
+        <v>20</v>
+      </c>
+      <c r="N221" t="s">
+        <v>20</v>
+      </c>
+      <c r="O221" t="s">
+        <v>20</v>
+      </c>
+      <c r="P221" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q221" t="s">
         <v>472</v>
-      </c>
-      <c r="D221" t="s">
-        <v>470</v>
-      </c>
-      <c r="E221" t="s">
-        <v>20</v>
-      </c>
-      <c r="F221" t="s">
-        <v>20</v>
-      </c>
-      <c r="G221" t="s">
-        <v>20</v>
-      </c>
-      <c r="H221" t="s">
-        <v>20</v>
-      </c>
-      <c r="I221" t="s">
-        <v>320</v>
-      </c>
-      <c r="J221" t="s">
-        <v>346</v>
-      </c>
-      <c r="K221" t="s">
-        <v>20</v>
-      </c>
-      <c r="L221" t="s">
-        <v>20</v>
-      </c>
-      <c r="M221" t="s">
-        <v>20</v>
-      </c>
-      <c r="N221" t="s">
-        <v>20</v>
-      </c>
-      <c r="O221" t="s">
-        <v>20</v>
-      </c>
-      <c r="P221" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>473</v>
       </c>
       <c r="R221" t="s">
         <v>23</v>
@@ -16089,16 +16086,16 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B222" t="s">
         <v>99</v>
       </c>
       <c r="C222" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D222" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E222" t="s">
         <v>20</v>
@@ -16113,7 +16110,7 @@
         <v>20</v>
       </c>
       <c r="I222" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J222" t="s">
         <v>192</v>
@@ -16137,7 +16134,7 @@
         <v>20</v>
       </c>
       <c r="Q222" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R222" t="s">
         <v>23</v>
@@ -16154,55 +16151,55 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>474</v>
+      </c>
+      <c r="B223" t="s">
         <v>475</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" t="s">
+        <v>20</v>
+      </c>
+      <c r="E223" t="s">
+        <v>20</v>
+      </c>
+      <c r="F223" t="s">
+        <v>20</v>
+      </c>
+      <c r="G223" t="s">
+        <v>20</v>
+      </c>
+      <c r="H223" t="s">
+        <v>20</v>
+      </c>
+      <c r="I223" t="s">
         <v>476</v>
       </c>
-      <c r="C223" t="s">
-        <v>20</v>
-      </c>
-      <c r="D223" t="s">
-        <v>20</v>
-      </c>
-      <c r="E223" t="s">
-        <v>20</v>
-      </c>
-      <c r="F223" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" t="s">
-        <v>20</v>
-      </c>
-      <c r="H223" t="s">
-        <v>20</v>
-      </c>
-      <c r="I223" t="s">
+      <c r="J223" t="s">
+        <v>476</v>
+      </c>
+      <c r="K223" t="s">
+        <v>20</v>
+      </c>
+      <c r="L223" t="s">
+        <v>20</v>
+      </c>
+      <c r="M223" t="s">
+        <v>20</v>
+      </c>
+      <c r="N223" t="s">
+        <v>20</v>
+      </c>
+      <c r="O223" t="s">
+        <v>20</v>
+      </c>
+      <c r="P223" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q223" t="s">
         <v>477</v>
-      </c>
-      <c r="J223" t="s">
-        <v>477</v>
-      </c>
-      <c r="K223" t="s">
-        <v>20</v>
-      </c>
-      <c r="L223" t="s">
-        <v>20</v>
-      </c>
-      <c r="M223" t="s">
-        <v>20</v>
-      </c>
-      <c r="N223" t="s">
-        <v>20</v>
-      </c>
-      <c r="O223" t="s">
-        <v>20</v>
-      </c>
-      <c r="P223" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>478</v>
       </c>
       <c r="R223" t="s">
         <v>23</v>
@@ -16219,31 +16216,31 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B224" t="s">
         <v>202</v>
       </c>
       <c r="C224" t="s">
+        <v>479</v>
+      </c>
+      <c r="D224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
+        <v>20</v>
+      </c>
+      <c r="F224" t="s">
         <v>480</v>
       </c>
-      <c r="D224" t="s">
-        <v>20</v>
-      </c>
-      <c r="E224" t="s">
-        <v>20</v>
-      </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
+        <v>20</v>
+      </c>
+      <c r="H224" t="s">
+        <v>20</v>
+      </c>
+      <c r="I224" t="s">
         <v>481</v>
-      </c>
-      <c r="G224" t="s">
-        <v>20</v>
-      </c>
-      <c r="H224" t="s">
-        <v>20</v>
-      </c>
-      <c r="I224" t="s">
-        <v>482</v>
       </c>
       <c r="J224" t="s">
         <v>95</v>
@@ -16267,7 +16264,7 @@
         <v>20</v>
       </c>
       <c r="Q224" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R224" t="s">
         <v>23</v>
@@ -16284,23 +16281,23 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B225" t="s">
         <v>202</v>
       </c>
       <c r="C225" t="s">
+        <v>483</v>
+      </c>
+      <c r="D225" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" t="s">
+        <v>20</v>
+      </c>
+      <c r="F225" t="s">
         <v>484</v>
       </c>
-      <c r="D225" t="s">
-        <v>20</v>
-      </c>
-      <c r="E225" t="s">
-        <v>20</v>
-      </c>
-      <c r="F225" t="s">
-        <v>485</v>
-      </c>
       <c r="G225" t="s">
         <v>20</v>
       </c>
@@ -16308,7 +16305,7 @@
         <v>20</v>
       </c>
       <c r="I225" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J225" t="s">
         <v>95</v>
@@ -16332,72 +16329,72 @@
         <v>20</v>
       </c>
       <c r="Q225" t="s">
+        <v>485</v>
+      </c>
+      <c r="R225" t="s">
+        <v>23</v>
+      </c>
+      <c r="S225" t="s">
+        <v>23</v>
+      </c>
+      <c r="T225" t="s">
+        <v>23</v>
+      </c>
+      <c r="U225" t="s">
         <v>486</v>
-      </c>
-      <c r="R225" t="s">
-        <v>23</v>
-      </c>
-      <c r="S225" t="s">
-        <v>23</v>
-      </c>
-      <c r="T225" t="s">
-        <v>23</v>
-      </c>
-      <c r="U225" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B226" t="s">
         <v>202</v>
       </c>
       <c r="C226" t="s">
+        <v>487</v>
+      </c>
+      <c r="D226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226" t="s">
+        <v>20</v>
+      </c>
+      <c r="F226" t="s">
+        <v>484</v>
+      </c>
+      <c r="G226" t="s">
+        <v>20</v>
+      </c>
+      <c r="H226" t="s">
+        <v>20</v>
+      </c>
+      <c r="I226" t="s">
+        <v>481</v>
+      </c>
+      <c r="J226" t="s">
+        <v>336</v>
+      </c>
+      <c r="K226" t="s">
+        <v>20</v>
+      </c>
+      <c r="L226" t="s">
+        <v>20</v>
+      </c>
+      <c r="M226" t="s">
+        <v>20</v>
+      </c>
+      <c r="N226" t="s">
+        <v>20</v>
+      </c>
+      <c r="O226" t="s">
+        <v>20</v>
+      </c>
+      <c r="P226" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q226" t="s">
         <v>488</v>
-      </c>
-      <c r="D226" t="s">
-        <v>20</v>
-      </c>
-      <c r="E226" t="s">
-        <v>20</v>
-      </c>
-      <c r="F226" t="s">
-        <v>485</v>
-      </c>
-      <c r="G226" t="s">
-        <v>20</v>
-      </c>
-      <c r="H226" t="s">
-        <v>20</v>
-      </c>
-      <c r="I226" t="s">
-        <v>482</v>
-      </c>
-      <c r="J226" t="s">
-        <v>337</v>
-      </c>
-      <c r="K226" t="s">
-        <v>20</v>
-      </c>
-      <c r="L226" t="s">
-        <v>20</v>
-      </c>
-      <c r="M226" t="s">
-        <v>20</v>
-      </c>
-      <c r="N226" t="s">
-        <v>20</v>
-      </c>
-      <c r="O226" t="s">
-        <v>20</v>
-      </c>
-      <c r="P226" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>489</v>
       </c>
       <c r="R226" t="s">
         <v>23</v>
@@ -16414,13 +16411,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B227" t="s">
         <v>202</v>
       </c>
       <c r="C227" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D227" t="s">
         <v>20</v>
@@ -16429,7 +16426,7 @@
         <v>20</v>
       </c>
       <c r="F227" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G227" t="s">
         <v>20</v>
@@ -16438,7 +16435,7 @@
         <v>20</v>
       </c>
       <c r="I227" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J227" t="s">
         <v>95</v>
@@ -16462,7 +16459,7 @@
         <v>20</v>
       </c>
       <c r="Q227" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R227" t="s">
         <v>23</v>
@@ -16479,55 +16476,55 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B228" t="s">
         <v>202</v>
       </c>
       <c r="C228" t="s">
+        <v>492</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" t="s">
+        <v>484</v>
+      </c>
+      <c r="G228" t="s">
+        <v>20</v>
+      </c>
+      <c r="H228" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228" t="s">
+        <v>481</v>
+      </c>
+      <c r="J228" t="s">
+        <v>336</v>
+      </c>
+      <c r="K228" t="s">
+        <v>20</v>
+      </c>
+      <c r="L228" t="s">
+        <v>20</v>
+      </c>
+      <c r="M228" t="s">
+        <v>20</v>
+      </c>
+      <c r="N228" t="s">
+        <v>20</v>
+      </c>
+      <c r="O228" t="s">
+        <v>20</v>
+      </c>
+      <c r="P228" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q228" t="s">
         <v>493</v>
-      </c>
-      <c r="D228" t="s">
-        <v>20</v>
-      </c>
-      <c r="E228" t="s">
-        <v>20</v>
-      </c>
-      <c r="F228" t="s">
-        <v>485</v>
-      </c>
-      <c r="G228" t="s">
-        <v>20</v>
-      </c>
-      <c r="H228" t="s">
-        <v>20</v>
-      </c>
-      <c r="I228" t="s">
-        <v>482</v>
-      </c>
-      <c r="J228" t="s">
-        <v>337</v>
-      </c>
-      <c r="K228" t="s">
-        <v>20</v>
-      </c>
-      <c r="L228" t="s">
-        <v>20</v>
-      </c>
-      <c r="M228" t="s">
-        <v>20</v>
-      </c>
-      <c r="N228" t="s">
-        <v>20</v>
-      </c>
-      <c r="O228" t="s">
-        <v>20</v>
-      </c>
-      <c r="P228" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>494</v>
       </c>
       <c r="R228" t="s">
         <v>23</v>
@@ -16559,7 +16556,7 @@
         <v>20</v>
       </c>
       <c r="F229" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G229" t="s">
         <v>20</v>
@@ -16592,7 +16589,7 @@
         <v>20</v>
       </c>
       <c r="Q229" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R229" t="s">
         <v>23</v>
@@ -16609,13 +16606,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B230" t="s">
         <v>202</v>
       </c>
       <c r="C230" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D230" t="s">
         <v>20</v>
@@ -16624,7 +16621,7 @@
         <v>20</v>
       </c>
       <c r="F230" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G230" t="s">
         <v>20</v>
@@ -16633,10 +16630,10 @@
         <v>20</v>
       </c>
       <c r="I230" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J230" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K230" t="s">
         <v>20</v>
@@ -16657,7 +16654,7 @@
         <v>20</v>
       </c>
       <c r="Q230" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R230" t="s">
         <v>23</v>
@@ -16674,55 +16671,55 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>496</v>
+      </c>
+      <c r="B231" t="s">
+        <v>475</v>
+      </c>
+      <c r="C231" t="s">
+        <v>20</v>
+      </c>
+      <c r="D231" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" t="s">
+        <v>20</v>
+      </c>
+      <c r="F231" t="s">
+        <v>20</v>
+      </c>
+      <c r="G231" t="s">
+        <v>20</v>
+      </c>
+      <c r="H231" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231" t="s">
+        <v>20</v>
+      </c>
+      <c r="J231" t="s">
+        <v>20</v>
+      </c>
+      <c r="K231" t="s">
+        <v>20</v>
+      </c>
+      <c r="L231" t="s">
+        <v>20</v>
+      </c>
+      <c r="M231" t="s">
+        <v>20</v>
+      </c>
+      <c r="N231" t="s">
+        <v>20</v>
+      </c>
+      <c r="O231" t="s">
+        <v>20</v>
+      </c>
+      <c r="P231" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q231" t="s">
         <v>497</v>
-      </c>
-      <c r="B231" t="s">
-        <v>476</v>
-      </c>
-      <c r="C231" t="s">
-        <v>20</v>
-      </c>
-      <c r="D231" t="s">
-        <v>20</v>
-      </c>
-      <c r="E231" t="s">
-        <v>20</v>
-      </c>
-      <c r="F231" t="s">
-        <v>20</v>
-      </c>
-      <c r="G231" t="s">
-        <v>20</v>
-      </c>
-      <c r="H231" t="s">
-        <v>20</v>
-      </c>
-      <c r="I231" t="s">
-        <v>20</v>
-      </c>
-      <c r="J231" t="s">
-        <v>20</v>
-      </c>
-      <c r="K231" t="s">
-        <v>20</v>
-      </c>
-      <c r="L231" t="s">
-        <v>20</v>
-      </c>
-      <c r="M231" t="s">
-        <v>20</v>
-      </c>
-      <c r="N231" t="s">
-        <v>20</v>
-      </c>
-      <c r="O231" t="s">
-        <v>20</v>
-      </c>
-      <c r="P231" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>498</v>
       </c>
       <c r="R231" t="s">
         <v>23</v>
@@ -16739,7 +16736,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B232" t="s">
         <v>202</v>
@@ -16748,7 +16745,7 @@
         <v>20</v>
       </c>
       <c r="D232" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E232" t="s">
         <v>20</v>
@@ -16763,31 +16760,31 @@
         <v>20</v>
       </c>
       <c r="I232" t="s">
+        <v>500</v>
+      </c>
+      <c r="J232" t="s">
         <v>501</v>
       </c>
-      <c r="J232" t="s">
+      <c r="K232" t="s">
+        <v>20</v>
+      </c>
+      <c r="L232" t="s">
+        <v>20</v>
+      </c>
+      <c r="M232" t="s">
+        <v>20</v>
+      </c>
+      <c r="N232" t="s">
+        <v>20</v>
+      </c>
+      <c r="O232" t="s">
+        <v>20</v>
+      </c>
+      <c r="P232" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q232" t="s">
         <v>502</v>
-      </c>
-      <c r="K232" t="s">
-        <v>20</v>
-      </c>
-      <c r="L232" t="s">
-        <v>20</v>
-      </c>
-      <c r="M232" t="s">
-        <v>20</v>
-      </c>
-      <c r="N232" t="s">
-        <v>20</v>
-      </c>
-      <c r="O232" t="s">
-        <v>20</v>
-      </c>
-      <c r="P232" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q232" t="s">
-        <v>503</v>
       </c>
       <c r="R232" t="s">
         <v>23</v>
@@ -16804,7 +16801,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B233" t="s">
         <v>202</v>
@@ -16813,7 +16810,7 @@
         <v>20</v>
       </c>
       <c r="D233" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E233" t="s">
         <v>20</v>
@@ -16828,31 +16825,31 @@
         <v>20</v>
       </c>
       <c r="I233" t="s">
+        <v>504</v>
+      </c>
+      <c r="J233" t="s">
+        <v>481</v>
+      </c>
+      <c r="K233" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233" t="s">
+        <v>20</v>
+      </c>
+      <c r="M233" t="s">
+        <v>20</v>
+      </c>
+      <c r="N233" t="s">
+        <v>20</v>
+      </c>
+      <c r="O233" t="s">
+        <v>20</v>
+      </c>
+      <c r="P233" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q233" t="s">
         <v>505</v>
-      </c>
-      <c r="J233" t="s">
-        <v>482</v>
-      </c>
-      <c r="K233" t="s">
-        <v>20</v>
-      </c>
-      <c r="L233" t="s">
-        <v>20</v>
-      </c>
-      <c r="M233" t="s">
-        <v>20</v>
-      </c>
-      <c r="N233" t="s">
-        <v>20</v>
-      </c>
-      <c r="O233" t="s">
-        <v>20</v>
-      </c>
-      <c r="P233" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q233" t="s">
-        <v>506</v>
       </c>
       <c r="R233" t="s">
         <v>23</v>
@@ -16869,7 +16866,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B234" t="s">
         <v>202</v>
@@ -16878,7 +16875,7 @@
         <v>20</v>
       </c>
       <c r="D234" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E234" t="s">
         <v>20</v>
@@ -16893,48 +16890,48 @@
         <v>20</v>
       </c>
       <c r="I234" t="s">
+        <v>506</v>
+      </c>
+      <c r="J234" t="s">
         <v>507</v>
       </c>
-      <c r="J234" t="s">
+      <c r="K234" t="s">
+        <v>20</v>
+      </c>
+      <c r="L234" t="s">
+        <v>20</v>
+      </c>
+      <c r="M234" t="s">
+        <v>20</v>
+      </c>
+      <c r="N234" t="s">
+        <v>20</v>
+      </c>
+      <c r="O234" t="s">
+        <v>20</v>
+      </c>
+      <c r="P234" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q234" t="s">
         <v>508</v>
       </c>
-      <c r="K234" t="s">
-        <v>20</v>
-      </c>
-      <c r="L234" t="s">
-        <v>20</v>
-      </c>
-      <c r="M234" t="s">
-        <v>20</v>
-      </c>
-      <c r="N234" t="s">
-        <v>20</v>
-      </c>
-      <c r="O234" t="s">
-        <v>20</v>
-      </c>
-      <c r="P234" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q234" t="s">
+      <c r="R234" t="s">
+        <v>23</v>
+      </c>
+      <c r="S234" t="s">
+        <v>23</v>
+      </c>
+      <c r="T234" t="s">
+        <v>23</v>
+      </c>
+      <c r="U234" t="s">
         <v>509</v>
-      </c>
-      <c r="R234" t="s">
-        <v>23</v>
-      </c>
-      <c r="S234" t="s">
-        <v>23</v>
-      </c>
-      <c r="T234" t="s">
-        <v>23</v>
-      </c>
-      <c r="U234" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B235" t="s">
         <v>202</v>
@@ -16943,7 +16940,7 @@
         <v>20</v>
       </c>
       <c r="D235" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E235" t="s">
         <v>20</v>
@@ -16961,28 +16958,28 @@
         <v>20</v>
       </c>
       <c r="J235" t="s">
+        <v>511</v>
+      </c>
+      <c r="K235" t="s">
+        <v>20</v>
+      </c>
+      <c r="L235" t="s">
+        <v>20</v>
+      </c>
+      <c r="M235" t="s">
+        <v>20</v>
+      </c>
+      <c r="N235" t="s">
+        <v>20</v>
+      </c>
+      <c r="O235" t="s">
+        <v>20</v>
+      </c>
+      <c r="P235" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q235" t="s">
         <v>512</v>
-      </c>
-      <c r="K235" t="s">
-        <v>20</v>
-      </c>
-      <c r="L235" t="s">
-        <v>20</v>
-      </c>
-      <c r="M235" t="s">
-        <v>20</v>
-      </c>
-      <c r="N235" t="s">
-        <v>20</v>
-      </c>
-      <c r="O235" t="s">
-        <v>20</v>
-      </c>
-      <c r="P235" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>513</v>
       </c>
       <c r="R235" t="s">
         <v>23</v>
@@ -16999,7 +16996,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B236" t="s">
         <v>202</v>
@@ -17008,7 +17005,7 @@
         <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E236" t="s">
         <v>20</v>
@@ -17026,28 +17023,28 @@
         <v>28</v>
       </c>
       <c r="J236" t="s">
+        <v>511</v>
+      </c>
+      <c r="K236" t="s">
+        <v>20</v>
+      </c>
+      <c r="L236" t="s">
+        <v>20</v>
+      </c>
+      <c r="M236" t="s">
+        <v>20</v>
+      </c>
+      <c r="N236" t="s">
+        <v>20</v>
+      </c>
+      <c r="O236" t="s">
+        <v>20</v>
+      </c>
+      <c r="P236" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q236" t="s">
         <v>512</v>
-      </c>
-      <c r="K236" t="s">
-        <v>20</v>
-      </c>
-      <c r="L236" t="s">
-        <v>20</v>
-      </c>
-      <c r="M236" t="s">
-        <v>20</v>
-      </c>
-      <c r="N236" t="s">
-        <v>20</v>
-      </c>
-      <c r="O236" t="s">
-        <v>20</v>
-      </c>
-      <c r="P236" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>513</v>
       </c>
       <c r="R236" t="s">
         <v>23</v>
@@ -17064,16 +17061,16 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B237" t="s">
         <v>202</v>
       </c>
       <c r="C237" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D237" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E237" t="s">
         <v>20</v>
@@ -17088,31 +17085,31 @@
         <v>20</v>
       </c>
       <c r="I237" t="s">
+        <v>514</v>
+      </c>
+      <c r="J237" t="s">
+        <v>511</v>
+      </c>
+      <c r="K237" t="s">
+        <v>20</v>
+      </c>
+      <c r="L237" t="s">
+        <v>20</v>
+      </c>
+      <c r="M237" t="s">
+        <v>20</v>
+      </c>
+      <c r="N237" t="s">
+        <v>20</v>
+      </c>
+      <c r="O237" t="s">
+        <v>20</v>
+      </c>
+      <c r="P237" t="s">
         <v>515</v>
       </c>
-      <c r="J237" t="s">
+      <c r="Q237" t="s">
         <v>512</v>
-      </c>
-      <c r="K237" t="s">
-        <v>20</v>
-      </c>
-      <c r="L237" t="s">
-        <v>20</v>
-      </c>
-      <c r="M237" t="s">
-        <v>20</v>
-      </c>
-      <c r="N237" t="s">
-        <v>20</v>
-      </c>
-      <c r="O237" t="s">
-        <v>20</v>
-      </c>
-      <c r="P237" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>513</v>
       </c>
       <c r="R237" t="s">
         <v>23</v>
@@ -17129,7 +17126,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B238" t="s">
         <v>202</v>
@@ -17138,7 +17135,7 @@
         <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E238" t="s">
         <v>20</v>
@@ -17153,11 +17150,11 @@
         <v>20</v>
       </c>
       <c r="I238" t="s">
+        <v>506</v>
+      </c>
+      <c r="J238" t="s">
         <v>507</v>
       </c>
-      <c r="J238" t="s">
-        <v>508</v>
-      </c>
       <c r="K238" t="s">
         <v>20</v>
       </c>
@@ -17177,7 +17174,7 @@
         <v>20</v>
       </c>
       <c r="Q238" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R238" t="s">
         <v>23</v>
@@ -17194,7 +17191,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B239" t="s">
         <v>202</v>
@@ -17203,7 +17200,7 @@
         <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E239" t="s">
         <v>20</v>
@@ -17221,28 +17218,28 @@
         <v>28</v>
       </c>
       <c r="J239" t="s">
+        <v>518</v>
+      </c>
+      <c r="K239" t="s">
+        <v>20</v>
+      </c>
+      <c r="L239" t="s">
+        <v>20</v>
+      </c>
+      <c r="M239" t="s">
+        <v>20</v>
+      </c>
+      <c r="N239" t="s">
+        <v>20</v>
+      </c>
+      <c r="O239" t="s">
+        <v>20</v>
+      </c>
+      <c r="P239" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q239" t="s">
         <v>519</v>
-      </c>
-      <c r="K239" t="s">
-        <v>20</v>
-      </c>
-      <c r="L239" t="s">
-        <v>20</v>
-      </c>
-      <c r="M239" t="s">
-        <v>20</v>
-      </c>
-      <c r="N239" t="s">
-        <v>20</v>
-      </c>
-      <c r="O239" t="s">
-        <v>20</v>
-      </c>
-      <c r="P239" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q239" t="s">
-        <v>520</v>
       </c>
       <c r="R239" t="s">
         <v>23</v>
@@ -17259,7 +17256,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B240" t="s">
         <v>202</v>
@@ -17268,7 +17265,7 @@
         <v>20</v>
       </c>
       <c r="D240" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E240" t="s">
         <v>20</v>
@@ -17283,31 +17280,31 @@
         <v>20</v>
       </c>
       <c r="I240" t="s">
+        <v>520</v>
+      </c>
+      <c r="J240" t="s">
         <v>521</v>
       </c>
-      <c r="J240" t="s">
+      <c r="K240" t="s">
+        <v>20</v>
+      </c>
+      <c r="L240" t="s">
+        <v>20</v>
+      </c>
+      <c r="M240" t="s">
+        <v>20</v>
+      </c>
+      <c r="N240" t="s">
+        <v>20</v>
+      </c>
+      <c r="O240" t="s">
+        <v>20</v>
+      </c>
+      <c r="P240" t="s">
         <v>522</v>
       </c>
-      <c r="K240" t="s">
-        <v>20</v>
-      </c>
-      <c r="L240" t="s">
-        <v>20</v>
-      </c>
-      <c r="M240" t="s">
-        <v>20</v>
-      </c>
-      <c r="N240" t="s">
-        <v>20</v>
-      </c>
-      <c r="O240" t="s">
-        <v>20</v>
-      </c>
-      <c r="P240" t="s">
-        <v>523</v>
-      </c>
       <c r="Q240" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R240" t="s">
         <v>23</v>
@@ -17324,7 +17321,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B241" t="s">
         <v>202</v>
@@ -17333,7 +17330,7 @@
         <v>20</v>
       </c>
       <c r="D241" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E241" t="s">
         <v>20</v>
@@ -17348,48 +17345,48 @@
         <v>20</v>
       </c>
       <c r="I241" t="s">
+        <v>524</v>
+      </c>
+      <c r="J241" t="s">
         <v>525</v>
       </c>
-      <c r="J241" t="s">
+      <c r="K241" t="s">
+        <v>20</v>
+      </c>
+      <c r="L241" t="s">
+        <v>20</v>
+      </c>
+      <c r="M241" t="s">
+        <v>20</v>
+      </c>
+      <c r="N241" t="s">
+        <v>20</v>
+      </c>
+      <c r="O241" t="s">
+        <v>20</v>
+      </c>
+      <c r="P241" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q241" t="s">
         <v>526</v>
       </c>
-      <c r="K241" t="s">
-        <v>20</v>
-      </c>
-      <c r="L241" t="s">
-        <v>20</v>
-      </c>
-      <c r="M241" t="s">
-        <v>20</v>
-      </c>
-      <c r="N241" t="s">
-        <v>20</v>
-      </c>
-      <c r="O241" t="s">
-        <v>20</v>
-      </c>
-      <c r="P241" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q241" t="s">
+      <c r="R241" t="s">
+        <v>23</v>
+      </c>
+      <c r="S241" t="s">
+        <v>23</v>
+      </c>
+      <c r="T241" t="s">
+        <v>23</v>
+      </c>
+      <c r="U241" t="s">
         <v>527</v>
-      </c>
-      <c r="R241" t="s">
-        <v>23</v>
-      </c>
-      <c r="S241" t="s">
-        <v>23</v>
-      </c>
-      <c r="T241" t="s">
-        <v>23</v>
-      </c>
-      <c r="U241" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B242" t="s">
         <v>202</v>
@@ -17398,7 +17395,7 @@
         <v>20</v>
       </c>
       <c r="D242" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E242" t="s">
         <v>20</v>
@@ -17413,31 +17410,31 @@
         <v>20</v>
       </c>
       <c r="I242" t="s">
+        <v>528</v>
+      </c>
+      <c r="J242" t="s">
+        <v>511</v>
+      </c>
+      <c r="K242" t="s">
+        <v>20</v>
+      </c>
+      <c r="L242" t="s">
+        <v>20</v>
+      </c>
+      <c r="M242" t="s">
+        <v>20</v>
+      </c>
+      <c r="N242" t="s">
+        <v>20</v>
+      </c>
+      <c r="O242" t="s">
+        <v>20</v>
+      </c>
+      <c r="P242" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q242" t="s">
         <v>529</v>
-      </c>
-      <c r="J242" t="s">
-        <v>512</v>
-      </c>
-      <c r="K242" t="s">
-        <v>20</v>
-      </c>
-      <c r="L242" t="s">
-        <v>20</v>
-      </c>
-      <c r="M242" t="s">
-        <v>20</v>
-      </c>
-      <c r="N242" t="s">
-        <v>20</v>
-      </c>
-      <c r="O242" t="s">
-        <v>20</v>
-      </c>
-      <c r="P242" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>530</v>
       </c>
       <c r="R242" t="s">
         <v>23</v>
@@ -17454,7 +17451,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B243" t="s">
         <v>202</v>
@@ -17463,7 +17460,7 @@
         <v>20</v>
       </c>
       <c r="D243" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E243" t="s">
         <v>20</v>
@@ -17478,31 +17475,31 @@
         <v>20</v>
       </c>
       <c r="I243" t="s">
+        <v>532</v>
+      </c>
+      <c r="J243" t="s">
+        <v>501</v>
+      </c>
+      <c r="K243" t="s">
+        <v>20</v>
+      </c>
+      <c r="L243" t="s">
+        <v>20</v>
+      </c>
+      <c r="M243" t="s">
+        <v>20</v>
+      </c>
+      <c r="N243" t="s">
+        <v>20</v>
+      </c>
+      <c r="O243" t="s">
+        <v>20</v>
+      </c>
+      <c r="P243" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q243" t="s">
         <v>533</v>
-      </c>
-      <c r="J243" t="s">
-        <v>502</v>
-      </c>
-      <c r="K243" t="s">
-        <v>20</v>
-      </c>
-      <c r="L243" t="s">
-        <v>20</v>
-      </c>
-      <c r="M243" t="s">
-        <v>20</v>
-      </c>
-      <c r="N243" t="s">
-        <v>20</v>
-      </c>
-      <c r="O243" t="s">
-        <v>20</v>
-      </c>
-      <c r="P243" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q243" t="s">
-        <v>534</v>
       </c>
       <c r="R243" t="s">
         <v>23</v>
@@ -17519,7 +17516,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B244" t="s">
         <v>202</v>
@@ -17528,7 +17525,7 @@
         <v>20</v>
       </c>
       <c r="D244" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E244" t="s">
         <v>20</v>
@@ -17543,31 +17540,31 @@
         <v>20</v>
       </c>
       <c r="I244" t="s">
+        <v>536</v>
+      </c>
+      <c r="J244" t="s">
         <v>537</v>
       </c>
-      <c r="J244" t="s">
+      <c r="K244" t="s">
+        <v>20</v>
+      </c>
+      <c r="L244" t="s">
+        <v>20</v>
+      </c>
+      <c r="M244" t="s">
+        <v>20</v>
+      </c>
+      <c r="N244" t="s">
+        <v>20</v>
+      </c>
+      <c r="O244" t="s">
+        <v>20</v>
+      </c>
+      <c r="P244" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q244" t="s">
         <v>538</v>
-      </c>
-      <c r="K244" t="s">
-        <v>20</v>
-      </c>
-      <c r="L244" t="s">
-        <v>20</v>
-      </c>
-      <c r="M244" t="s">
-        <v>20</v>
-      </c>
-      <c r="N244" t="s">
-        <v>20</v>
-      </c>
-      <c r="O244" t="s">
-        <v>20</v>
-      </c>
-      <c r="P244" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>539</v>
       </c>
       <c r="R244" t="s">
         <v>23</v>
@@ -17584,7 +17581,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B245" t="s">
         <v>202</v>
@@ -17593,7 +17590,7 @@
         <v>20</v>
       </c>
       <c r="D245" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E245" t="s">
         <v>20</v>
@@ -17608,31 +17605,31 @@
         <v>20</v>
       </c>
       <c r="I245" t="s">
+        <v>540</v>
+      </c>
+      <c r="J245" t="s">
+        <v>501</v>
+      </c>
+      <c r="K245" t="s">
+        <v>20</v>
+      </c>
+      <c r="L245" t="s">
+        <v>20</v>
+      </c>
+      <c r="M245" t="s">
+        <v>20</v>
+      </c>
+      <c r="N245" t="s">
+        <v>20</v>
+      </c>
+      <c r="O245" t="s">
+        <v>20</v>
+      </c>
+      <c r="P245" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q245" t="s">
         <v>541</v>
-      </c>
-      <c r="J245" t="s">
-        <v>502</v>
-      </c>
-      <c r="K245" t="s">
-        <v>20</v>
-      </c>
-      <c r="L245" t="s">
-        <v>20</v>
-      </c>
-      <c r="M245" t="s">
-        <v>20</v>
-      </c>
-      <c r="N245" t="s">
-        <v>20</v>
-      </c>
-      <c r="O245" t="s">
-        <v>20</v>
-      </c>
-      <c r="P245" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>542</v>
       </c>
       <c r="R245" t="s">
         <v>23</v>
@@ -17649,7 +17646,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B246" t="s">
         <v>202</v>
@@ -17658,7 +17655,7 @@
         <v>20</v>
       </c>
       <c r="D246" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E246" t="s">
         <v>20</v>
@@ -17673,7 +17670,7 @@
         <v>20</v>
       </c>
       <c r="I246" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J246" t="s">
         <v>36</v>
@@ -17697,7 +17694,7 @@
         <v>20</v>
       </c>
       <c r="Q246" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R246" t="s">
         <v>23</v>
@@ -17714,7 +17711,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B247" t="s">
         <v>202</v>
@@ -17723,7 +17720,7 @@
         <v>20</v>
       </c>
       <c r="D247" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E247" t="s">
         <v>20</v>
@@ -17738,31 +17735,31 @@
         <v>20</v>
       </c>
       <c r="I247" t="s">
+        <v>546</v>
+      </c>
+      <c r="J247" t="s">
         <v>547</v>
       </c>
-      <c r="J247" t="s">
+      <c r="K247" t="s">
+        <v>20</v>
+      </c>
+      <c r="L247" t="s">
+        <v>20</v>
+      </c>
+      <c r="M247" t="s">
+        <v>20</v>
+      </c>
+      <c r="N247" t="s">
+        <v>20</v>
+      </c>
+      <c r="O247" t="s">
+        <v>20</v>
+      </c>
+      <c r="P247" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q247" t="s">
         <v>548</v>
-      </c>
-      <c r="K247" t="s">
-        <v>20</v>
-      </c>
-      <c r="L247" t="s">
-        <v>20</v>
-      </c>
-      <c r="M247" t="s">
-        <v>20</v>
-      </c>
-      <c r="N247" t="s">
-        <v>20</v>
-      </c>
-      <c r="O247" t="s">
-        <v>20</v>
-      </c>
-      <c r="P247" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q247" t="s">
-        <v>549</v>
       </c>
       <c r="R247" t="s">
         <v>23</v>
@@ -17827,7 +17824,7 @@
         <v>20</v>
       </c>
       <c r="Q248" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R248" t="s">
         <v>23</v>
@@ -17892,7 +17889,7 @@
         <v>20</v>
       </c>
       <c r="Q249" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R249" t="s">
         <v>23</v>
@@ -17957,7 +17954,7 @@
         <v>20</v>
       </c>
       <c r="Q250" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R250" t="s">
         <v>23</v>
